--- a/Arquivos/Atividade_atributo.xlsx
+++ b/Arquivos/Atividade_atributo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{80EB9BD7-DC22-4491-9CD4-5361BBFB33A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6EE333F-74BC-4F21-96A5-4B27BFD5ED15}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{80EB9BD7-DC22-4491-9CD4-5361BBFB33A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10755AF5-0577-4765-B81D-6B97CFE22558}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7954204D-CE93-48C0-8218-9A9302B83F2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04923CE5-FC0F-449E-BF59-73DCD0C6D8C0}">
-  <dimension ref="A1:G1850"/>
+  <dimension ref="A1:G2205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1804" workbookViewId="0">
-      <selection activeCell="B1811" sqref="B1811"/>
+    <sheetView tabSelected="1" topLeftCell="A2157" workbookViewId="0">
+      <selection activeCell="A2166" sqref="A2166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48559,6 +48559,9236 @@
         <v>2024</v>
       </c>
     </row>
+    <row r="1851" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1851" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1851">
+        <v>20240606</v>
+      </c>
+      <c r="C1851">
+        <v>62</v>
+      </c>
+      <c r="D1851">
+        <v>77</v>
+      </c>
+      <c r="E1851" t="str">
+        <f t="shared" ref="E1851" si="111">_xlfn.CONCAT(RIGHT(B1851,2),"/",MID(B1851,5,2),"/",LEFT(B1851,4))</f>
+        <v>06/06/2024</v>
+      </c>
+      <c r="F1851" t="str">
+        <f t="shared" ref="F1851" si="112">MID(B1851,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G1851" t="str">
+        <f t="shared" ref="G1851" si="113">LEFT(B1851,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1852" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1852">
+        <v>20240608</v>
+      </c>
+      <c r="C1852">
+        <v>58</v>
+      </c>
+      <c r="D1852">
+        <v>65</v>
+      </c>
+      <c r="E1852" t="str">
+        <f t="shared" ref="E1852:E1891" si="114">_xlfn.CONCAT(RIGHT(B1852,2),"/",MID(B1852,5,2),"/",LEFT(B1852,4))</f>
+        <v>08/06/2024</v>
+      </c>
+      <c r="F1852" t="str">
+        <f t="shared" ref="F1852:F1891" si="115">MID(B1852,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G1852" t="str">
+        <f t="shared" ref="G1852:G1891" si="116">LEFT(B1852,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1853" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1853">
+        <v>20240607</v>
+      </c>
+      <c r="C1853">
+        <v>48</v>
+      </c>
+      <c r="D1853">
+        <v>54</v>
+      </c>
+      <c r="E1853" t="str">
+        <f t="shared" si="114"/>
+        <v>07/06/2024</v>
+      </c>
+      <c r="F1853" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1853" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1854" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1854">
+        <v>20240609</v>
+      </c>
+      <c r="C1854">
+        <v>39</v>
+      </c>
+      <c r="D1854">
+        <v>41</v>
+      </c>
+      <c r="E1854" t="str">
+        <f t="shared" si="114"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="F1854" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1854" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1855" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1855">
+        <v>20240604</v>
+      </c>
+      <c r="C1855">
+        <v>30</v>
+      </c>
+      <c r="D1855">
+        <v>41</v>
+      </c>
+      <c r="E1855" t="str">
+        <f t="shared" si="114"/>
+        <v>04/06/2024</v>
+      </c>
+      <c r="F1855" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1855" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1856" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1856">
+        <v>20240603</v>
+      </c>
+      <c r="C1856">
+        <v>28</v>
+      </c>
+      <c r="D1856">
+        <v>31</v>
+      </c>
+      <c r="E1856" t="str">
+        <f t="shared" si="114"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="F1856" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1856" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1857" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1857">
+        <v>20240604</v>
+      </c>
+      <c r="C1857">
+        <v>25</v>
+      </c>
+      <c r="D1857">
+        <v>28</v>
+      </c>
+      <c r="E1857" t="str">
+        <f t="shared" si="114"/>
+        <v>04/06/2024</v>
+      </c>
+      <c r="F1857" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1857" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1858" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1858">
+        <v>20240605</v>
+      </c>
+      <c r="C1858">
+        <v>22</v>
+      </c>
+      <c r="D1858">
+        <v>27</v>
+      </c>
+      <c r="E1858" t="str">
+        <f t="shared" si="114"/>
+        <v>05/06/2024</v>
+      </c>
+      <c r="F1858" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1858" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1859" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1859">
+        <v>20240608</v>
+      </c>
+      <c r="C1859">
+        <v>19</v>
+      </c>
+      <c r="D1859">
+        <v>22</v>
+      </c>
+      <c r="E1859" t="str">
+        <f t="shared" si="114"/>
+        <v>08/06/2024</v>
+      </c>
+      <c r="F1859" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1859" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1860" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1860">
+        <v>20240609</v>
+      </c>
+      <c r="C1860">
+        <v>16</v>
+      </c>
+      <c r="D1860">
+        <v>18</v>
+      </c>
+      <c r="E1860" t="str">
+        <f t="shared" si="114"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="F1860" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1860" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1861" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1861">
+        <v>20240605</v>
+      </c>
+      <c r="C1861">
+        <v>15</v>
+      </c>
+      <c r="D1861">
+        <v>17</v>
+      </c>
+      <c r="E1861" t="str">
+        <f t="shared" si="114"/>
+        <v>05/06/2024</v>
+      </c>
+      <c r="F1861" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1861" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1862" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1862">
+        <v>20240603</v>
+      </c>
+      <c r="C1862">
+        <v>13</v>
+      </c>
+      <c r="D1862">
+        <v>25</v>
+      </c>
+      <c r="E1862" t="str">
+        <f t="shared" si="114"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="F1862" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1862" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1863" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1863">
+        <v>20240605</v>
+      </c>
+      <c r="C1863">
+        <v>10</v>
+      </c>
+      <c r="D1863">
+        <v>10</v>
+      </c>
+      <c r="E1863" t="str">
+        <f t="shared" si="114"/>
+        <v>05/06/2024</v>
+      </c>
+      <c r="F1863" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1863" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1864" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1864">
+        <v>20240604</v>
+      </c>
+      <c r="C1864">
+        <v>10</v>
+      </c>
+      <c r="D1864">
+        <v>13</v>
+      </c>
+      <c r="E1864" t="str">
+        <f t="shared" si="114"/>
+        <v>04/06/2024</v>
+      </c>
+      <c r="F1864" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1864" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1865" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1865">
+        <v>20240606</v>
+      </c>
+      <c r="C1865">
+        <v>10</v>
+      </c>
+      <c r="D1865">
+        <v>12</v>
+      </c>
+      <c r="E1865" t="str">
+        <f t="shared" si="114"/>
+        <v>06/06/2024</v>
+      </c>
+      <c r="F1865" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1865" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1866" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1866">
+        <v>20240604</v>
+      </c>
+      <c r="C1866">
+        <v>8</v>
+      </c>
+      <c r="D1866">
+        <v>11</v>
+      </c>
+      <c r="E1866" t="str">
+        <f t="shared" si="114"/>
+        <v>04/06/2024</v>
+      </c>
+      <c r="F1866" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1866" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1867" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1867">
+        <v>20240609</v>
+      </c>
+      <c r="C1867">
+        <v>8</v>
+      </c>
+      <c r="D1867">
+        <v>10</v>
+      </c>
+      <c r="E1867" t="str">
+        <f t="shared" si="114"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="F1867" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1867" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1868" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1868">
+        <v>20240604</v>
+      </c>
+      <c r="C1868">
+        <v>7</v>
+      </c>
+      <c r="D1868">
+        <v>9</v>
+      </c>
+      <c r="E1868" t="str">
+        <f t="shared" si="114"/>
+        <v>04/06/2024</v>
+      </c>
+      <c r="F1868" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1868" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1869" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1869">
+        <v>20240605</v>
+      </c>
+      <c r="C1869">
+        <v>7</v>
+      </c>
+      <c r="D1869">
+        <v>8</v>
+      </c>
+      <c r="E1869" t="str">
+        <f t="shared" si="114"/>
+        <v>05/06/2024</v>
+      </c>
+      <c r="F1869" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1869" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1870" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1870">
+        <v>20240606</v>
+      </c>
+      <c r="C1870">
+        <v>6</v>
+      </c>
+      <c r="D1870">
+        <v>14</v>
+      </c>
+      <c r="E1870" t="str">
+        <f t="shared" si="114"/>
+        <v>06/06/2024</v>
+      </c>
+      <c r="F1870" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1870" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1871" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1871">
+        <v>20240607</v>
+      </c>
+      <c r="C1871">
+        <v>6</v>
+      </c>
+      <c r="D1871">
+        <v>9</v>
+      </c>
+      <c r="E1871" t="str">
+        <f t="shared" si="114"/>
+        <v>07/06/2024</v>
+      </c>
+      <c r="F1871" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1871" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1872" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1872">
+        <v>20240603</v>
+      </c>
+      <c r="C1872">
+        <v>6</v>
+      </c>
+      <c r="D1872">
+        <v>8</v>
+      </c>
+      <c r="E1872" t="str">
+        <f t="shared" si="114"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="F1872" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1872" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1873" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1873">
+        <v>20240606</v>
+      </c>
+      <c r="C1873">
+        <v>6</v>
+      </c>
+      <c r="D1873">
+        <v>10</v>
+      </c>
+      <c r="E1873" t="str">
+        <f t="shared" si="114"/>
+        <v>06/06/2024</v>
+      </c>
+      <c r="F1873" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1873" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1874" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1874">
+        <v>20240604</v>
+      </c>
+      <c r="C1874">
+        <v>5</v>
+      </c>
+      <c r="D1874">
+        <v>7</v>
+      </c>
+      <c r="E1874" t="str">
+        <f t="shared" si="114"/>
+        <v>04/06/2024</v>
+      </c>
+      <c r="F1874" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1874" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1875" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1875">
+        <v>20240607</v>
+      </c>
+      <c r="C1875">
+        <v>4</v>
+      </c>
+      <c r="D1875">
+        <v>9</v>
+      </c>
+      <c r="E1875" t="str">
+        <f t="shared" si="114"/>
+        <v>07/06/2024</v>
+      </c>
+      <c r="F1875" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1875" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1876" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1876">
+        <v>20240603</v>
+      </c>
+      <c r="C1876">
+        <v>4</v>
+      </c>
+      <c r="D1876">
+        <v>5</v>
+      </c>
+      <c r="E1876" t="str">
+        <f t="shared" si="114"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="F1876" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1876" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1877" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1877">
+        <v>20240605</v>
+      </c>
+      <c r="C1877">
+        <v>3</v>
+      </c>
+      <c r="D1877">
+        <v>3</v>
+      </c>
+      <c r="E1877" t="str">
+        <f t="shared" si="114"/>
+        <v>05/06/2024</v>
+      </c>
+      <c r="F1877" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1877" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1878" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1878">
+        <v>20240606</v>
+      </c>
+      <c r="C1878">
+        <v>3</v>
+      </c>
+      <c r="D1878">
+        <v>3</v>
+      </c>
+      <c r="E1878" t="str">
+        <f t="shared" si="114"/>
+        <v>06/06/2024</v>
+      </c>
+      <c r="F1878" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1878" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1879" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1879">
+        <v>20240609</v>
+      </c>
+      <c r="C1879">
+        <v>3</v>
+      </c>
+      <c r="D1879">
+        <v>4</v>
+      </c>
+      <c r="E1879" t="str">
+        <f t="shared" si="114"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="F1879" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1879" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1880" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1880">
+        <v>20240607</v>
+      </c>
+      <c r="C1880">
+        <v>3</v>
+      </c>
+      <c r="D1880">
+        <v>4</v>
+      </c>
+      <c r="E1880" t="str">
+        <f t="shared" si="114"/>
+        <v>07/06/2024</v>
+      </c>
+      <c r="F1880" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1880" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1881" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1881">
+        <v>20240608</v>
+      </c>
+      <c r="C1881">
+        <v>2</v>
+      </c>
+      <c r="D1881">
+        <v>2</v>
+      </c>
+      <c r="E1881" t="str">
+        <f t="shared" si="114"/>
+        <v>08/06/2024</v>
+      </c>
+      <c r="F1881" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1881" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1882" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1882">
+        <v>20240608</v>
+      </c>
+      <c r="C1882">
+        <v>2</v>
+      </c>
+      <c r="D1882">
+        <v>6</v>
+      </c>
+      <c r="E1882" t="str">
+        <f t="shared" si="114"/>
+        <v>08/06/2024</v>
+      </c>
+      <c r="F1882" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1882" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1883" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1883">
+        <v>20240606</v>
+      </c>
+      <c r="C1883">
+        <v>2</v>
+      </c>
+      <c r="D1883">
+        <v>3</v>
+      </c>
+      <c r="E1883" t="str">
+        <f t="shared" si="114"/>
+        <v>06/06/2024</v>
+      </c>
+      <c r="F1883" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1883" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1884" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1884">
+        <v>20240608</v>
+      </c>
+      <c r="C1884">
+        <v>2</v>
+      </c>
+      <c r="D1884">
+        <v>3</v>
+      </c>
+      <c r="E1884" t="str">
+        <f t="shared" si="114"/>
+        <v>08/06/2024</v>
+      </c>
+      <c r="F1884" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1884" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1885" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1885">
+        <v>20240605</v>
+      </c>
+      <c r="C1885">
+        <v>2</v>
+      </c>
+      <c r="D1885">
+        <v>2</v>
+      </c>
+      <c r="E1885" t="str">
+        <f t="shared" si="114"/>
+        <v>05/06/2024</v>
+      </c>
+      <c r="F1885" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1885" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1886" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1886">
+        <v>20240609</v>
+      </c>
+      <c r="C1886">
+        <v>2</v>
+      </c>
+      <c r="D1886">
+        <v>3</v>
+      </c>
+      <c r="E1886" t="str">
+        <f t="shared" si="114"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="F1886" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1886" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1887" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1887">
+        <v>20240603</v>
+      </c>
+      <c r="C1887">
+        <v>1</v>
+      </c>
+      <c r="D1887">
+        <v>1</v>
+      </c>
+      <c r="E1887" t="str">
+        <f t="shared" si="114"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="F1887" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1887" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1888" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1888">
+        <v>20240603</v>
+      </c>
+      <c r="C1888">
+        <v>1</v>
+      </c>
+      <c r="D1888">
+        <v>3</v>
+      </c>
+      <c r="E1888" t="str">
+        <f t="shared" si="114"/>
+        <v>03/06/2024</v>
+      </c>
+      <c r="F1888" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1888" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1889" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1889">
+        <v>20240607</v>
+      </c>
+      <c r="C1889">
+        <v>1</v>
+      </c>
+      <c r="D1889">
+        <v>2</v>
+      </c>
+      <c r="E1889" t="str">
+        <f t="shared" si="114"/>
+        <v>07/06/2024</v>
+      </c>
+      <c r="F1889" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1889" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1890" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1890">
+        <v>20240609</v>
+      </c>
+      <c r="C1890">
+        <v>1</v>
+      </c>
+      <c r="D1890">
+        <v>2</v>
+      </c>
+      <c r="E1890" t="str">
+        <f t="shared" si="114"/>
+        <v>09/06/2024</v>
+      </c>
+      <c r="F1890" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1890" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1891" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1891">
+        <v>20240607</v>
+      </c>
+      <c r="C1891">
+        <v>0</v>
+      </c>
+      <c r="D1891">
+        <v>1</v>
+      </c>
+      <c r="E1891" t="str">
+        <f t="shared" si="114"/>
+        <v>07/06/2024</v>
+      </c>
+      <c r="F1891" t="str">
+        <f t="shared" si="115"/>
+        <v>06</v>
+      </c>
+      <c r="G1891" t="str">
+        <f t="shared" si="116"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1892" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1892">
+        <v>20240611</v>
+      </c>
+      <c r="C1892">
+        <v>50</v>
+      </c>
+      <c r="D1892">
+        <v>55</v>
+      </c>
+      <c r="E1892" t="str">
+        <f t="shared" ref="E1892" si="117">_xlfn.CONCAT(RIGHT(B1892,2),"/",MID(B1892,5,2),"/",LEFT(B1892,4))</f>
+        <v>11/06/2024</v>
+      </c>
+      <c r="F1892" t="str">
+        <f t="shared" ref="F1892" si="118">MID(B1892,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G1892" t="str">
+        <f t="shared" ref="G1892" si="119">LEFT(B1892,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1893" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1893">
+        <v>20240615</v>
+      </c>
+      <c r="C1893">
+        <v>32</v>
+      </c>
+      <c r="D1893">
+        <v>38</v>
+      </c>
+      <c r="E1893" t="str">
+        <f t="shared" ref="E1893:E1927" si="120">_xlfn.CONCAT(RIGHT(B1893,2),"/",MID(B1893,5,2),"/",LEFT(B1893,4))</f>
+        <v>15/06/2024</v>
+      </c>
+      <c r="F1893" t="str">
+        <f t="shared" ref="F1893:F1927" si="121">MID(B1893,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G1893" t="str">
+        <f t="shared" ref="G1893:G1927" si="122">LEFT(B1893,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1894" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1894">
+        <v>20240610</v>
+      </c>
+      <c r="C1894">
+        <v>31</v>
+      </c>
+      <c r="D1894">
+        <v>32</v>
+      </c>
+      <c r="E1894" t="str">
+        <f t="shared" si="120"/>
+        <v>10/06/2024</v>
+      </c>
+      <c r="F1894" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1894" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1895" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1895">
+        <v>20240614</v>
+      </c>
+      <c r="C1895">
+        <v>28</v>
+      </c>
+      <c r="D1895">
+        <v>32</v>
+      </c>
+      <c r="E1895" t="str">
+        <f t="shared" si="120"/>
+        <v>14/06/2024</v>
+      </c>
+      <c r="F1895" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1895" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1896" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1896">
+        <v>20240611</v>
+      </c>
+      <c r="C1896">
+        <v>24</v>
+      </c>
+      <c r="D1896">
+        <v>33</v>
+      </c>
+      <c r="E1896" t="str">
+        <f t="shared" si="120"/>
+        <v>11/06/2024</v>
+      </c>
+      <c r="F1896" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1896" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1897" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1897">
+        <v>20240613</v>
+      </c>
+      <c r="C1897">
+        <v>24</v>
+      </c>
+      <c r="D1897">
+        <v>33</v>
+      </c>
+      <c r="E1897" t="str">
+        <f t="shared" si="120"/>
+        <v>13/06/2024</v>
+      </c>
+      <c r="F1897" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1897" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1898" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1898">
+        <v>20240612</v>
+      </c>
+      <c r="C1898">
+        <v>23</v>
+      </c>
+      <c r="D1898">
+        <v>24</v>
+      </c>
+      <c r="E1898" t="str">
+        <f t="shared" si="120"/>
+        <v>12/06/2024</v>
+      </c>
+      <c r="F1898" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1898" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1899" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1899">
+        <v>20240613</v>
+      </c>
+      <c r="C1899">
+        <v>16</v>
+      </c>
+      <c r="D1899">
+        <v>17</v>
+      </c>
+      <c r="E1899" t="str">
+        <f t="shared" si="120"/>
+        <v>13/06/2024</v>
+      </c>
+      <c r="F1899" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1899" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1900" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1900">
+        <v>20240614</v>
+      </c>
+      <c r="C1900">
+        <v>15</v>
+      </c>
+      <c r="D1900">
+        <v>18</v>
+      </c>
+      <c r="E1900" t="str">
+        <f t="shared" si="120"/>
+        <v>14/06/2024</v>
+      </c>
+      <c r="F1900" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1900" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1901" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1901">
+        <v>20240612</v>
+      </c>
+      <c r="C1901">
+        <v>15</v>
+      </c>
+      <c r="D1901">
+        <v>30</v>
+      </c>
+      <c r="E1901" t="str">
+        <f t="shared" si="120"/>
+        <v>12/06/2024</v>
+      </c>
+      <c r="F1901" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1901" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1902" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1902">
+        <v>20240616</v>
+      </c>
+      <c r="C1902">
+        <v>12</v>
+      </c>
+      <c r="D1902">
+        <v>13</v>
+      </c>
+      <c r="E1902" t="str">
+        <f t="shared" si="120"/>
+        <v>16/06/2024</v>
+      </c>
+      <c r="F1902" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1902" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1903" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1903">
+        <v>20240610</v>
+      </c>
+      <c r="C1903">
+        <v>11</v>
+      </c>
+      <c r="D1903">
+        <v>21</v>
+      </c>
+      <c r="E1903" t="str">
+        <f t="shared" si="120"/>
+        <v>10/06/2024</v>
+      </c>
+      <c r="F1903" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1903" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1904" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1904">
+        <v>20240612</v>
+      </c>
+      <c r="C1904">
+        <v>9</v>
+      </c>
+      <c r="D1904">
+        <v>10</v>
+      </c>
+      <c r="E1904" t="str">
+        <f t="shared" si="120"/>
+        <v>12/06/2024</v>
+      </c>
+      <c r="F1904" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1904" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1905" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1905">
+        <v>20240615</v>
+      </c>
+      <c r="C1905">
+        <v>8</v>
+      </c>
+      <c r="D1905">
+        <v>9</v>
+      </c>
+      <c r="E1905" t="str">
+        <f t="shared" si="120"/>
+        <v>15/06/2024</v>
+      </c>
+      <c r="F1905" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1905" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1906" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1906">
+        <v>20240614</v>
+      </c>
+      <c r="C1906">
+        <v>8</v>
+      </c>
+      <c r="D1906">
+        <v>8</v>
+      </c>
+      <c r="E1906" t="str">
+        <f t="shared" si="120"/>
+        <v>14/06/2024</v>
+      </c>
+      <c r="F1906" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1906" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1907" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1907">
+        <v>20240611</v>
+      </c>
+      <c r="C1907">
+        <v>7</v>
+      </c>
+      <c r="D1907">
+        <v>7</v>
+      </c>
+      <c r="E1907" t="str">
+        <f t="shared" si="120"/>
+        <v>11/06/2024</v>
+      </c>
+      <c r="F1907" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1907" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1908" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1908">
+        <v>20240610</v>
+      </c>
+      <c r="C1908">
+        <v>6</v>
+      </c>
+      <c r="D1908">
+        <v>10</v>
+      </c>
+      <c r="E1908" t="str">
+        <f t="shared" si="120"/>
+        <v>10/06/2024</v>
+      </c>
+      <c r="F1908" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1908" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1909" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1909">
+        <v>20240615</v>
+      </c>
+      <c r="C1909">
+        <v>6</v>
+      </c>
+      <c r="D1909">
+        <v>8</v>
+      </c>
+      <c r="E1909" t="str">
+        <f t="shared" si="120"/>
+        <v>15/06/2024</v>
+      </c>
+      <c r="F1909" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1909" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1910" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1910">
+        <v>20240616</v>
+      </c>
+      <c r="C1910">
+        <v>5</v>
+      </c>
+      <c r="D1910">
+        <v>6</v>
+      </c>
+      <c r="E1910" t="str">
+        <f t="shared" si="120"/>
+        <v>16/06/2024</v>
+      </c>
+      <c r="F1910" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1910" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1911" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1911">
+        <v>20240610</v>
+      </c>
+      <c r="C1911">
+        <v>5</v>
+      </c>
+      <c r="D1911">
+        <v>7</v>
+      </c>
+      <c r="E1911" t="str">
+        <f t="shared" si="120"/>
+        <v>10/06/2024</v>
+      </c>
+      <c r="F1911" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1911" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1912" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1912">
+        <v>20240616</v>
+      </c>
+      <c r="C1912">
+        <v>5</v>
+      </c>
+      <c r="D1912">
+        <v>4</v>
+      </c>
+      <c r="E1912" t="str">
+        <f t="shared" si="120"/>
+        <v>16/06/2024</v>
+      </c>
+      <c r="F1912" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1912" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1913" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1913">
+        <v>20240614</v>
+      </c>
+      <c r="C1913">
+        <v>5</v>
+      </c>
+      <c r="D1913">
+        <v>5</v>
+      </c>
+      <c r="E1913" t="str">
+        <f t="shared" si="120"/>
+        <v>14/06/2024</v>
+      </c>
+      <c r="F1913" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1913" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1914" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1914">
+        <v>20240614</v>
+      </c>
+      <c r="C1914">
+        <v>4</v>
+      </c>
+      <c r="D1914">
+        <v>6</v>
+      </c>
+      <c r="E1914" t="str">
+        <f t="shared" si="120"/>
+        <v>14/06/2024</v>
+      </c>
+      <c r="F1914" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1914" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1915" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1915">
+        <v>20240614</v>
+      </c>
+      <c r="C1915">
+        <v>3</v>
+      </c>
+      <c r="D1915">
+        <v>6</v>
+      </c>
+      <c r="E1915" t="str">
+        <f t="shared" si="120"/>
+        <v>14/06/2024</v>
+      </c>
+      <c r="F1915" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1915" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1916" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1916">
+        <v>20240611</v>
+      </c>
+      <c r="C1916">
+        <v>3</v>
+      </c>
+      <c r="D1916">
+        <v>5</v>
+      </c>
+      <c r="E1916" t="str">
+        <f t="shared" si="120"/>
+        <v>11/06/2024</v>
+      </c>
+      <c r="F1916" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1916" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1917" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1917">
+        <v>20240612</v>
+      </c>
+      <c r="C1917">
+        <v>3</v>
+      </c>
+      <c r="D1917">
+        <v>3</v>
+      </c>
+      <c r="E1917" t="str">
+        <f t="shared" si="120"/>
+        <v>12/06/2024</v>
+      </c>
+      <c r="F1917" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1917" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1918" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1918">
+        <v>20240611</v>
+      </c>
+      <c r="C1918">
+        <v>2</v>
+      </c>
+      <c r="D1918">
+        <v>3</v>
+      </c>
+      <c r="E1918" t="str">
+        <f t="shared" si="120"/>
+        <v>11/06/2024</v>
+      </c>
+      <c r="F1918" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1918" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1919" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1919">
+        <v>20240611</v>
+      </c>
+      <c r="C1919">
+        <v>2</v>
+      </c>
+      <c r="D1919">
+        <v>4</v>
+      </c>
+      <c r="E1919" t="str">
+        <f t="shared" si="120"/>
+        <v>11/06/2024</v>
+      </c>
+      <c r="F1919" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1919" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1920" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1920">
+        <v>20240615</v>
+      </c>
+      <c r="C1920">
+        <v>1</v>
+      </c>
+      <c r="D1920">
+        <v>4</v>
+      </c>
+      <c r="E1920" t="str">
+        <f t="shared" si="120"/>
+        <v>15/06/2024</v>
+      </c>
+      <c r="F1920" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1920" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1921" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1921">
+        <v>20240613</v>
+      </c>
+      <c r="C1921">
+        <v>1</v>
+      </c>
+      <c r="D1921">
+        <v>1</v>
+      </c>
+      <c r="E1921" t="str">
+        <f t="shared" si="120"/>
+        <v>13/06/2024</v>
+      </c>
+      <c r="F1921" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1921" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1922" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1922">
+        <v>20240615</v>
+      </c>
+      <c r="C1922">
+        <v>1</v>
+      </c>
+      <c r="D1922">
+        <v>2</v>
+      </c>
+      <c r="E1922" t="str">
+        <f t="shared" si="120"/>
+        <v>15/06/2024</v>
+      </c>
+      <c r="F1922" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1922" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1923" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1923">
+        <v>20240616</v>
+      </c>
+      <c r="C1923">
+        <v>1</v>
+      </c>
+      <c r="D1923">
+        <v>1</v>
+      </c>
+      <c r="E1923" t="str">
+        <f t="shared" si="120"/>
+        <v>16/06/2024</v>
+      </c>
+      <c r="F1923" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1923" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1924" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1924">
+        <v>20240612</v>
+      </c>
+      <c r="C1924">
+        <v>1</v>
+      </c>
+      <c r="D1924">
+        <v>3</v>
+      </c>
+      <c r="E1924" t="str">
+        <f t="shared" si="120"/>
+        <v>12/06/2024</v>
+      </c>
+      <c r="F1924" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1924" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1925" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1925">
+        <v>20240613</v>
+      </c>
+      <c r="C1925">
+        <v>1</v>
+      </c>
+      <c r="D1925">
+        <v>3</v>
+      </c>
+      <c r="E1925" t="str">
+        <f t="shared" si="120"/>
+        <v>13/06/2024</v>
+      </c>
+      <c r="F1925" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1925" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1926" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1926">
+        <v>20240613</v>
+      </c>
+      <c r="C1926">
+        <v>0</v>
+      </c>
+      <c r="D1926">
+        <v>2</v>
+      </c>
+      <c r="E1926" t="str">
+        <f t="shared" si="120"/>
+        <v>13/06/2024</v>
+      </c>
+      <c r="F1926" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1926" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1927" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1927">
+        <v>20240615</v>
+      </c>
+      <c r="C1927">
+        <v>0</v>
+      </c>
+      <c r="D1927">
+        <v>1</v>
+      </c>
+      <c r="E1927" t="str">
+        <f t="shared" si="120"/>
+        <v>15/06/2024</v>
+      </c>
+      <c r="F1927" t="str">
+        <f t="shared" si="121"/>
+        <v>06</v>
+      </c>
+      <c r="G1927" t="str">
+        <f t="shared" si="122"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1928" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1928">
+        <v>20240619</v>
+      </c>
+      <c r="C1928">
+        <v>20</v>
+      </c>
+      <c r="D1928">
+        <v>28</v>
+      </c>
+      <c r="E1928" t="str">
+        <f t="shared" ref="E1928" si="123">_xlfn.CONCAT(RIGHT(B1928,2),"/",MID(B1928,5,2),"/",LEFT(B1928,4))</f>
+        <v>19/06/2024</v>
+      </c>
+      <c r="F1928" t="str">
+        <f t="shared" ref="F1928" si="124">MID(B1928,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G1928" t="str">
+        <f t="shared" ref="G1928" si="125">LEFT(B1928,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1929" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1929">
+        <v>20240622</v>
+      </c>
+      <c r="C1929">
+        <v>19</v>
+      </c>
+      <c r="D1929">
+        <v>22</v>
+      </c>
+      <c r="E1929" t="str">
+        <f t="shared" ref="E1929:E1967" si="126">_xlfn.CONCAT(RIGHT(B1929,2),"/",MID(B1929,5,2),"/",LEFT(B1929,4))</f>
+        <v>22/06/2024</v>
+      </c>
+      <c r="F1929" t="str">
+        <f t="shared" ref="F1929:F1967" si="127">MID(B1929,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G1929" t="str">
+        <f t="shared" ref="G1929:G1967" si="128">LEFT(B1929,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1930" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1930">
+        <v>20240620</v>
+      </c>
+      <c r="C1930">
+        <v>18</v>
+      </c>
+      <c r="D1930">
+        <v>28</v>
+      </c>
+      <c r="E1930" t="str">
+        <f t="shared" si="126"/>
+        <v>20/06/2024</v>
+      </c>
+      <c r="F1930" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1930" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1931" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1931">
+        <v>20240621</v>
+      </c>
+      <c r="C1931">
+        <v>17</v>
+      </c>
+      <c r="D1931">
+        <v>21</v>
+      </c>
+      <c r="E1931" t="str">
+        <f t="shared" si="126"/>
+        <v>21/06/2024</v>
+      </c>
+      <c r="F1931" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1931" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1932" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1932">
+        <v>20240623</v>
+      </c>
+      <c r="C1932">
+        <v>16</v>
+      </c>
+      <c r="D1932">
+        <v>22</v>
+      </c>
+      <c r="E1932" t="str">
+        <f t="shared" si="126"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="F1932" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1932" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1933" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1933">
+        <v>20240620</v>
+      </c>
+      <c r="C1933">
+        <v>13</v>
+      </c>
+      <c r="D1933">
+        <v>15</v>
+      </c>
+      <c r="E1933" t="str">
+        <f t="shared" si="126"/>
+        <v>20/06/2024</v>
+      </c>
+      <c r="F1933" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1933" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1934" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1934">
+        <v>20240617</v>
+      </c>
+      <c r="C1934">
+        <v>12</v>
+      </c>
+      <c r="D1934">
+        <v>13</v>
+      </c>
+      <c r="E1934" t="str">
+        <f t="shared" si="126"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="F1934" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1934" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1935" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1935">
+        <v>20240618</v>
+      </c>
+      <c r="C1935">
+        <v>12</v>
+      </c>
+      <c r="D1935">
+        <v>16</v>
+      </c>
+      <c r="E1935" t="str">
+        <f t="shared" si="126"/>
+        <v>18/06/2024</v>
+      </c>
+      <c r="F1935" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1935" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1936" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1936">
+        <v>20240619</v>
+      </c>
+      <c r="C1936">
+        <v>11</v>
+      </c>
+      <c r="D1936">
+        <v>12</v>
+      </c>
+      <c r="E1936" t="str">
+        <f t="shared" si="126"/>
+        <v>19/06/2024</v>
+      </c>
+      <c r="F1936" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1936" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1937" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1937">
+        <v>20240620</v>
+      </c>
+      <c r="C1937">
+        <v>9</v>
+      </c>
+      <c r="D1937">
+        <v>12</v>
+      </c>
+      <c r="E1937" t="str">
+        <f t="shared" si="126"/>
+        <v>20/06/2024</v>
+      </c>
+      <c r="F1937" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1937" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1938" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1938">
+        <v>20240622</v>
+      </c>
+      <c r="C1938">
+        <v>9</v>
+      </c>
+      <c r="D1938">
+        <v>10</v>
+      </c>
+      <c r="E1938" t="str">
+        <f t="shared" si="126"/>
+        <v>22/06/2024</v>
+      </c>
+      <c r="F1938" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1938" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1939" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1939">
+        <v>20240617</v>
+      </c>
+      <c r="C1939">
+        <v>9</v>
+      </c>
+      <c r="D1939">
+        <v>15</v>
+      </c>
+      <c r="E1939" t="str">
+        <f t="shared" si="126"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="F1939" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1939" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1940" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1940">
+        <v>20240621</v>
+      </c>
+      <c r="C1940">
+        <v>7</v>
+      </c>
+      <c r="D1940">
+        <v>7</v>
+      </c>
+      <c r="E1940" t="str">
+        <f t="shared" si="126"/>
+        <v>21/06/2024</v>
+      </c>
+      <c r="F1940" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1940" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1941" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1941">
+        <v>20240618</v>
+      </c>
+      <c r="C1941">
+        <v>7</v>
+      </c>
+      <c r="D1941">
+        <v>7</v>
+      </c>
+      <c r="E1941" t="str">
+        <f t="shared" si="126"/>
+        <v>18/06/2024</v>
+      </c>
+      <c r="F1941" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1941" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1942" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1942">
+        <v>20240618</v>
+      </c>
+      <c r="C1942">
+        <v>7</v>
+      </c>
+      <c r="D1942">
+        <v>11</v>
+      </c>
+      <c r="E1942" t="str">
+        <f t="shared" si="126"/>
+        <v>18/06/2024</v>
+      </c>
+      <c r="F1942" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1942" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1943" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1943">
+        <v>20240619</v>
+      </c>
+      <c r="C1943">
+        <v>6</v>
+      </c>
+      <c r="D1943">
+        <v>8</v>
+      </c>
+      <c r="E1943" t="str">
+        <f t="shared" si="126"/>
+        <v>19/06/2024</v>
+      </c>
+      <c r="F1943" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1943" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1944" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1944">
+        <v>20240622</v>
+      </c>
+      <c r="C1944">
+        <v>6</v>
+      </c>
+      <c r="D1944">
+        <v>7</v>
+      </c>
+      <c r="E1944" t="str">
+        <f t="shared" si="126"/>
+        <v>22/06/2024</v>
+      </c>
+      <c r="F1944" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1944" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1945" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1945">
+        <v>20240619</v>
+      </c>
+      <c r="C1945">
+        <v>5</v>
+      </c>
+      <c r="D1945">
+        <v>5</v>
+      </c>
+      <c r="E1945" t="str">
+        <f t="shared" si="126"/>
+        <v>19/06/2024</v>
+      </c>
+      <c r="F1945" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1945" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1946" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1946">
+        <v>20240621</v>
+      </c>
+      <c r="C1946">
+        <v>5</v>
+      </c>
+      <c r="D1946">
+        <v>9</v>
+      </c>
+      <c r="E1946" t="str">
+        <f t="shared" si="126"/>
+        <v>21/06/2024</v>
+      </c>
+      <c r="F1946" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1946" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1947" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1947">
+        <v>20240620</v>
+      </c>
+      <c r="C1947">
+        <v>5</v>
+      </c>
+      <c r="D1947">
+        <v>6</v>
+      </c>
+      <c r="E1947" t="str">
+        <f t="shared" si="126"/>
+        <v>20/06/2024</v>
+      </c>
+      <c r="F1947" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1947" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1948" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1948">
+        <v>20240621</v>
+      </c>
+      <c r="C1948">
+        <v>5</v>
+      </c>
+      <c r="D1948">
+        <v>15</v>
+      </c>
+      <c r="E1948" t="str">
+        <f t="shared" si="126"/>
+        <v>21/06/2024</v>
+      </c>
+      <c r="F1948" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1948" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1949" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1949">
+        <v>20240621</v>
+      </c>
+      <c r="C1949">
+        <v>4</v>
+      </c>
+      <c r="D1949">
+        <v>8</v>
+      </c>
+      <c r="E1949" t="str">
+        <f t="shared" si="126"/>
+        <v>21/06/2024</v>
+      </c>
+      <c r="F1949" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1949" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1950" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1950">
+        <v>20240623</v>
+      </c>
+      <c r="C1950">
+        <v>4</v>
+      </c>
+      <c r="D1950">
+        <v>5</v>
+      </c>
+      <c r="E1950" t="str">
+        <f t="shared" si="126"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="F1950" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1950" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1951" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1951">
+        <v>20240623</v>
+      </c>
+      <c r="C1951">
+        <v>4</v>
+      </c>
+      <c r="D1951">
+        <v>6</v>
+      </c>
+      <c r="E1951" t="str">
+        <f t="shared" si="126"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="F1951" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1951" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1952" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1952">
+        <v>20240619</v>
+      </c>
+      <c r="C1952">
+        <v>4</v>
+      </c>
+      <c r="D1952">
+        <v>5</v>
+      </c>
+      <c r="E1952" t="str">
+        <f t="shared" si="126"/>
+        <v>19/06/2024</v>
+      </c>
+      <c r="F1952" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1952" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1953" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1953">
+        <v>20240623</v>
+      </c>
+      <c r="C1953">
+        <v>4</v>
+      </c>
+      <c r="D1953">
+        <v>5</v>
+      </c>
+      <c r="E1953" t="str">
+        <f t="shared" si="126"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="F1953" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1953" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1954" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1954">
+        <v>20240617</v>
+      </c>
+      <c r="C1954">
+        <v>3</v>
+      </c>
+      <c r="D1954">
+        <v>4</v>
+      </c>
+      <c r="E1954" t="str">
+        <f t="shared" si="126"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="F1954" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1954" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1955" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1955">
+        <v>20240623</v>
+      </c>
+      <c r="C1955">
+        <v>3</v>
+      </c>
+      <c r="D1955">
+        <v>4</v>
+      </c>
+      <c r="E1955" t="str">
+        <f t="shared" si="126"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="F1955" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1955" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1956" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1956">
+        <v>20240622</v>
+      </c>
+      <c r="C1956">
+        <v>3</v>
+      </c>
+      <c r="D1956">
+        <v>5</v>
+      </c>
+      <c r="E1956" t="str">
+        <f t="shared" si="126"/>
+        <v>22/06/2024</v>
+      </c>
+      <c r="F1956" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1956" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1957" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1957">
+        <v>20240617</v>
+      </c>
+      <c r="C1957">
+        <v>2</v>
+      </c>
+      <c r="D1957">
+        <v>4</v>
+      </c>
+      <c r="E1957" t="str">
+        <f t="shared" si="126"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="F1957" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1957" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1958" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1958">
+        <v>20240618</v>
+      </c>
+      <c r="C1958">
+        <v>2</v>
+      </c>
+      <c r="D1958">
+        <v>5</v>
+      </c>
+      <c r="E1958" t="str">
+        <f t="shared" si="126"/>
+        <v>18/06/2024</v>
+      </c>
+      <c r="F1958" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1958" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1959" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1959">
+        <v>20240621</v>
+      </c>
+      <c r="C1959">
+        <v>2</v>
+      </c>
+      <c r="D1959">
+        <v>6</v>
+      </c>
+      <c r="E1959" t="str">
+        <f t="shared" si="126"/>
+        <v>21/06/2024</v>
+      </c>
+      <c r="F1959" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1959" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1960" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1960">
+        <v>20240622</v>
+      </c>
+      <c r="C1960">
+        <v>2</v>
+      </c>
+      <c r="D1960">
+        <v>8</v>
+      </c>
+      <c r="E1960" t="str">
+        <f t="shared" si="126"/>
+        <v>22/06/2024</v>
+      </c>
+      <c r="F1960" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1960" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1961" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1961">
+        <v>20240618</v>
+      </c>
+      <c r="C1961">
+        <v>2</v>
+      </c>
+      <c r="D1961">
+        <v>2</v>
+      </c>
+      <c r="E1961" t="str">
+        <f t="shared" si="126"/>
+        <v>18/06/2024</v>
+      </c>
+      <c r="F1961" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1961" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1962" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1962">
+        <v>20240617</v>
+      </c>
+      <c r="C1962">
+        <v>2</v>
+      </c>
+      <c r="D1962">
+        <v>3</v>
+      </c>
+      <c r="E1962" t="str">
+        <f t="shared" si="126"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="F1962" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1962" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1963" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1963">
+        <v>20240623</v>
+      </c>
+      <c r="C1963">
+        <v>2</v>
+      </c>
+      <c r="D1963">
+        <v>2</v>
+      </c>
+      <c r="E1963" t="str">
+        <f t="shared" si="126"/>
+        <v>23/06/2024</v>
+      </c>
+      <c r="F1963" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1963" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1964" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1964">
+        <v>20240619</v>
+      </c>
+      <c r="C1964">
+        <v>1</v>
+      </c>
+      <c r="D1964">
+        <v>1</v>
+      </c>
+      <c r="E1964" t="str">
+        <f t="shared" si="126"/>
+        <v>19/06/2024</v>
+      </c>
+      <c r="F1964" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1964" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1965" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1965">
+        <v>20240617</v>
+      </c>
+      <c r="C1965">
+        <v>1</v>
+      </c>
+      <c r="D1965">
+        <v>1</v>
+      </c>
+      <c r="E1965" t="str">
+        <f t="shared" si="126"/>
+        <v>17/06/2024</v>
+      </c>
+      <c r="F1965" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1965" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1966" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1966">
+        <v>20240618</v>
+      </c>
+      <c r="C1966">
+        <v>1</v>
+      </c>
+      <c r="D1966">
+        <v>2</v>
+      </c>
+      <c r="E1966" t="str">
+        <f t="shared" si="126"/>
+        <v>18/06/2024</v>
+      </c>
+      <c r="F1966" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1966" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1967" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1967">
+        <v>20240620</v>
+      </c>
+      <c r="C1967">
+        <v>0</v>
+      </c>
+      <c r="D1967">
+        <v>1</v>
+      </c>
+      <c r="E1967" t="str">
+        <f t="shared" si="126"/>
+        <v>20/06/2024</v>
+      </c>
+      <c r="F1967" t="str">
+        <f t="shared" si="127"/>
+        <v>06</v>
+      </c>
+      <c r="G1967" t="str">
+        <f t="shared" si="128"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1968" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1968">
+        <v>20240624</v>
+      </c>
+      <c r="C1968">
+        <v>43</v>
+      </c>
+      <c r="D1968">
+        <v>52</v>
+      </c>
+      <c r="E1968" t="str">
+        <f t="shared" ref="E1968" si="129">_xlfn.CONCAT(RIGHT(B1968,2),"/",MID(B1968,5,2),"/",LEFT(B1968,4))</f>
+        <v>24/06/2024</v>
+      </c>
+      <c r="F1968" t="str">
+        <f t="shared" ref="F1968" si="130">MID(B1968,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G1968" t="str">
+        <f t="shared" ref="G1968" si="131">LEFT(B1968,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1969" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1969">
+        <v>20240626</v>
+      </c>
+      <c r="C1969">
+        <v>30</v>
+      </c>
+      <c r="D1969">
+        <v>34</v>
+      </c>
+      <c r="E1969" t="str">
+        <f t="shared" ref="E1969:E2009" si="132">_xlfn.CONCAT(RIGHT(B1969,2),"/",MID(B1969,5,2),"/",LEFT(B1969,4))</f>
+        <v>26/06/2024</v>
+      </c>
+      <c r="F1969" t="str">
+        <f t="shared" ref="F1969:F2009" si="133">MID(B1969,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G1969" t="str">
+        <f t="shared" ref="G1969:G2009" si="134">LEFT(B1969,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1970">
+        <v>20240630</v>
+      </c>
+      <c r="C1970">
+        <v>22</v>
+      </c>
+      <c r="D1970">
+        <v>32</v>
+      </c>
+      <c r="E1970" t="str">
+        <f t="shared" si="132"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="F1970" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1970" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1971">
+        <v>20240625</v>
+      </c>
+      <c r="C1971">
+        <v>20</v>
+      </c>
+      <c r="D1971">
+        <v>27</v>
+      </c>
+      <c r="E1971" t="str">
+        <f t="shared" si="132"/>
+        <v>25/06/2024</v>
+      </c>
+      <c r="F1971" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1971" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1972" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1972">
+        <v>20240627</v>
+      </c>
+      <c r="C1972">
+        <v>19</v>
+      </c>
+      <c r="D1972">
+        <v>21</v>
+      </c>
+      <c r="E1972" t="str">
+        <f t="shared" si="132"/>
+        <v>27/06/2024</v>
+      </c>
+      <c r="F1972" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1972" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1973" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1973">
+        <v>20240624</v>
+      </c>
+      <c r="C1973">
+        <v>17</v>
+      </c>
+      <c r="D1973">
+        <v>21</v>
+      </c>
+      <c r="E1973" t="str">
+        <f t="shared" si="132"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="F1973" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1973" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1974" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1974">
+        <v>20240627</v>
+      </c>
+      <c r="C1974">
+        <v>17</v>
+      </c>
+      <c r="D1974">
+        <v>22</v>
+      </c>
+      <c r="E1974" t="str">
+        <f t="shared" si="132"/>
+        <v>27/06/2024</v>
+      </c>
+      <c r="F1974" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1974" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1975" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1975">
+        <v>20240625</v>
+      </c>
+      <c r="C1975">
+        <v>16</v>
+      </c>
+      <c r="D1975">
+        <v>20</v>
+      </c>
+      <c r="E1975" t="str">
+        <f t="shared" si="132"/>
+        <v>25/06/2024</v>
+      </c>
+      <c r="F1975" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1975" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1976" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1976">
+        <v>20240625</v>
+      </c>
+      <c r="C1976">
+        <v>16</v>
+      </c>
+      <c r="D1976">
+        <v>18</v>
+      </c>
+      <c r="E1976" t="str">
+        <f t="shared" si="132"/>
+        <v>25/06/2024</v>
+      </c>
+      <c r="F1976" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1976" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1977">
+        <v>20240629</v>
+      </c>
+      <c r="C1977">
+        <v>15</v>
+      </c>
+      <c r="D1977">
+        <v>23</v>
+      </c>
+      <c r="E1977" t="str">
+        <f t="shared" si="132"/>
+        <v>29/06/2024</v>
+      </c>
+      <c r="F1977" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1977" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1978">
+        <v>20240626</v>
+      </c>
+      <c r="C1978">
+        <v>14</v>
+      </c>
+      <c r="D1978">
+        <v>19</v>
+      </c>
+      <c r="E1978" t="str">
+        <f t="shared" si="132"/>
+        <v>26/06/2024</v>
+      </c>
+      <c r="F1978" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1978" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1979">
+        <v>20240627</v>
+      </c>
+      <c r="C1979">
+        <v>14</v>
+      </c>
+      <c r="D1979">
+        <v>18</v>
+      </c>
+      <c r="E1979" t="str">
+        <f t="shared" si="132"/>
+        <v>27/06/2024</v>
+      </c>
+      <c r="F1979" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1979" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1980" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1980">
+        <v>20240624</v>
+      </c>
+      <c r="C1980">
+        <v>13</v>
+      </c>
+      <c r="D1980">
+        <v>17</v>
+      </c>
+      <c r="E1980" t="str">
+        <f t="shared" si="132"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="F1980" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1980" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1981">
+        <v>20240624</v>
+      </c>
+      <c r="C1981">
+        <v>12</v>
+      </c>
+      <c r="D1981">
+        <v>17</v>
+      </c>
+      <c r="E1981" t="str">
+        <f t="shared" si="132"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="F1981" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1981" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1982" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1982">
+        <v>20240630</v>
+      </c>
+      <c r="C1982">
+        <v>10</v>
+      </c>
+      <c r="D1982">
+        <v>11</v>
+      </c>
+      <c r="E1982" t="str">
+        <f t="shared" si="132"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="F1982" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1982" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1983">
+        <v>20240628</v>
+      </c>
+      <c r="C1983">
+        <v>10</v>
+      </c>
+      <c r="D1983">
+        <v>17</v>
+      </c>
+      <c r="E1983" t="str">
+        <f t="shared" si="132"/>
+        <v>28/06/2024</v>
+      </c>
+      <c r="F1983" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1983" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1984" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1984">
+        <v>20240625</v>
+      </c>
+      <c r="C1984">
+        <v>9</v>
+      </c>
+      <c r="D1984">
+        <v>11</v>
+      </c>
+      <c r="E1984" t="str">
+        <f t="shared" si="132"/>
+        <v>25/06/2024</v>
+      </c>
+      <c r="F1984" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1984" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1985" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1985">
+        <v>20240628</v>
+      </c>
+      <c r="C1985">
+        <v>9</v>
+      </c>
+      <c r="D1985">
+        <v>10</v>
+      </c>
+      <c r="E1985" t="str">
+        <f t="shared" si="132"/>
+        <v>28/06/2024</v>
+      </c>
+      <c r="F1985" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1985" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1986" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1986">
+        <v>20240626</v>
+      </c>
+      <c r="C1986">
+        <v>8</v>
+      </c>
+      <c r="D1986">
+        <v>11</v>
+      </c>
+      <c r="E1986" t="str">
+        <f t="shared" si="132"/>
+        <v>26/06/2024</v>
+      </c>
+      <c r="F1986" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1986" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1987" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1987">
+        <v>20240629</v>
+      </c>
+      <c r="C1987">
+        <v>8</v>
+      </c>
+      <c r="D1987">
+        <v>9</v>
+      </c>
+      <c r="E1987" t="str">
+        <f t="shared" si="132"/>
+        <v>29/06/2024</v>
+      </c>
+      <c r="F1987" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1987" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1988" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1988">
+        <v>20240629</v>
+      </c>
+      <c r="C1988">
+        <v>7</v>
+      </c>
+      <c r="D1988">
+        <v>7</v>
+      </c>
+      <c r="E1988" t="str">
+        <f t="shared" si="132"/>
+        <v>29/06/2024</v>
+      </c>
+      <c r="F1988" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1988" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1989" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1989">
+        <v>20240630</v>
+      </c>
+      <c r="C1989">
+        <v>7</v>
+      </c>
+      <c r="D1989">
+        <v>13</v>
+      </c>
+      <c r="E1989" t="str">
+        <f t="shared" si="132"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="F1989" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1989" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1990" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1990">
+        <v>20240628</v>
+      </c>
+      <c r="C1990">
+        <v>6</v>
+      </c>
+      <c r="D1990">
+        <v>7</v>
+      </c>
+      <c r="E1990" t="str">
+        <f t="shared" si="132"/>
+        <v>28/06/2024</v>
+      </c>
+      <c r="F1990" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1990" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1991" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1991">
+        <v>20240630</v>
+      </c>
+      <c r="C1991">
+        <v>6</v>
+      </c>
+      <c r="D1991">
+        <v>8</v>
+      </c>
+      <c r="E1991" t="str">
+        <f t="shared" si="132"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="F1991" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1991" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1992" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1992">
+        <v>20240627</v>
+      </c>
+      <c r="C1992">
+        <v>5</v>
+      </c>
+      <c r="D1992">
+        <v>5</v>
+      </c>
+      <c r="E1992" t="str">
+        <f t="shared" si="132"/>
+        <v>27/06/2024</v>
+      </c>
+      <c r="F1992" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1992" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1993" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1993">
+        <v>20240627</v>
+      </c>
+      <c r="C1993">
+        <v>5</v>
+      </c>
+      <c r="D1993">
+        <v>7</v>
+      </c>
+      <c r="E1993" t="str">
+        <f t="shared" si="132"/>
+        <v>27/06/2024</v>
+      </c>
+      <c r="F1993" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1993" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1994" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1994">
+        <v>20240628</v>
+      </c>
+      <c r="C1994">
+        <v>5</v>
+      </c>
+      <c r="D1994">
+        <v>5</v>
+      </c>
+      <c r="E1994" t="str">
+        <f t="shared" si="132"/>
+        <v>28/06/2024</v>
+      </c>
+      <c r="F1994" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1994" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1995" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1995">
+        <v>20240630</v>
+      </c>
+      <c r="C1995">
+        <v>4</v>
+      </c>
+      <c r="D1995">
+        <v>4</v>
+      </c>
+      <c r="E1995" t="str">
+        <f t="shared" si="132"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="F1995" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1995" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1996" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1996">
+        <v>20240629</v>
+      </c>
+      <c r="C1996">
+        <v>4</v>
+      </c>
+      <c r="D1996">
+        <v>4</v>
+      </c>
+      <c r="E1996" t="str">
+        <f t="shared" si="132"/>
+        <v>29/06/2024</v>
+      </c>
+      <c r="F1996" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1996" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1997" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1997">
+        <v>20240630</v>
+      </c>
+      <c r="C1997">
+        <v>4</v>
+      </c>
+      <c r="D1997">
+        <v>6</v>
+      </c>
+      <c r="E1997" t="str">
+        <f t="shared" si="132"/>
+        <v>30/06/2024</v>
+      </c>
+      <c r="F1997" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1997" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1998" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1998">
+        <v>20240624</v>
+      </c>
+      <c r="C1998">
+        <v>3</v>
+      </c>
+      <c r="D1998">
+        <v>3</v>
+      </c>
+      <c r="E1998" t="str">
+        <f t="shared" si="132"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="F1998" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1998" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1999" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1999">
+        <v>20240625</v>
+      </c>
+      <c r="C1999">
+        <v>3</v>
+      </c>
+      <c r="D1999">
+        <v>5</v>
+      </c>
+      <c r="E1999" t="str">
+        <f t="shared" si="132"/>
+        <v>25/06/2024</v>
+      </c>
+      <c r="F1999" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G1999" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2000" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2000">
+        <v>20240626</v>
+      </c>
+      <c r="C2000">
+        <v>3</v>
+      </c>
+      <c r="D2000">
+        <v>4</v>
+      </c>
+      <c r="E2000" t="str">
+        <f t="shared" si="132"/>
+        <v>26/06/2024</v>
+      </c>
+      <c r="F2000" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G2000" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2001" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2001">
+        <v>20240625</v>
+      </c>
+      <c r="C2001">
+        <v>3</v>
+      </c>
+      <c r="D2001">
+        <v>3</v>
+      </c>
+      <c r="E2001" t="str">
+        <f t="shared" si="132"/>
+        <v>25/06/2024</v>
+      </c>
+      <c r="F2001" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G2001" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2002" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2002">
+        <v>20240629</v>
+      </c>
+      <c r="C2002">
+        <v>3</v>
+      </c>
+      <c r="D2002">
+        <v>3</v>
+      </c>
+      <c r="E2002" t="str">
+        <f t="shared" si="132"/>
+        <v>29/06/2024</v>
+      </c>
+      <c r="F2002" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G2002" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2003" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2003">
+        <v>20240629</v>
+      </c>
+      <c r="C2003">
+        <v>2</v>
+      </c>
+      <c r="D2003">
+        <v>8</v>
+      </c>
+      <c r="E2003" t="str">
+        <f t="shared" si="132"/>
+        <v>29/06/2024</v>
+      </c>
+      <c r="F2003" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G2003" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2004" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2004">
+        <v>20240627</v>
+      </c>
+      <c r="C2004">
+        <v>2</v>
+      </c>
+      <c r="D2004">
+        <v>3</v>
+      </c>
+      <c r="E2004" t="str">
+        <f t="shared" si="132"/>
+        <v>27/06/2024</v>
+      </c>
+      <c r="F2004" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G2004" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2005" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2005">
+        <v>20240628</v>
+      </c>
+      <c r="C2005">
+        <v>2</v>
+      </c>
+      <c r="D2005">
+        <v>2</v>
+      </c>
+      <c r="E2005" t="str">
+        <f t="shared" si="132"/>
+        <v>28/06/2024</v>
+      </c>
+      <c r="F2005" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G2005" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2006" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2006">
+        <v>20240626</v>
+      </c>
+      <c r="C2006">
+        <v>1</v>
+      </c>
+      <c r="D2006">
+        <v>3</v>
+      </c>
+      <c r="E2006" t="str">
+        <f t="shared" si="132"/>
+        <v>26/06/2024</v>
+      </c>
+      <c r="F2006" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G2006" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2007" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2007">
+        <v>20240628</v>
+      </c>
+      <c r="C2007">
+        <v>1</v>
+      </c>
+      <c r="D2007">
+        <v>2</v>
+      </c>
+      <c r="E2007" t="str">
+        <f t="shared" si="132"/>
+        <v>28/06/2024</v>
+      </c>
+      <c r="F2007" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G2007" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2008" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2008">
+        <v>20240626</v>
+      </c>
+      <c r="C2008">
+        <v>1</v>
+      </c>
+      <c r="D2008">
+        <v>1</v>
+      </c>
+      <c r="E2008" t="str">
+        <f t="shared" si="132"/>
+        <v>26/06/2024</v>
+      </c>
+      <c r="F2008" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G2008" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2009" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2009">
+        <v>20240624</v>
+      </c>
+      <c r="C2009">
+        <v>0</v>
+      </c>
+      <c r="D2009">
+        <v>1</v>
+      </c>
+      <c r="E2009" t="str">
+        <f t="shared" si="132"/>
+        <v>24/06/2024</v>
+      </c>
+      <c r="F2009" t="str">
+        <f t="shared" si="133"/>
+        <v>06</v>
+      </c>
+      <c r="G2009" t="str">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2010">
+        <v>20240702</v>
+      </c>
+      <c r="C2010">
+        <v>19</v>
+      </c>
+      <c r="D2010">
+        <v>24</v>
+      </c>
+      <c r="E2010" t="str">
+        <f t="shared" ref="E2010" si="135">_xlfn.CONCAT(RIGHT(B2010,2),"/",MID(B2010,5,2),"/",LEFT(B2010,4))</f>
+        <v>02/07/2024</v>
+      </c>
+      <c r="F2010" t="str">
+        <f t="shared" ref="F2010" si="136">MID(B2010,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G2010" t="str">
+        <f t="shared" ref="G2010" si="137">LEFT(B2010,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2011">
+        <v>20240705</v>
+      </c>
+      <c r="C2011">
+        <v>18</v>
+      </c>
+      <c r="D2011">
+        <v>27</v>
+      </c>
+      <c r="E2011" t="str">
+        <f t="shared" ref="E2011:E2049" si="138">_xlfn.CONCAT(RIGHT(B2011,2),"/",MID(B2011,5,2),"/",LEFT(B2011,4))</f>
+        <v>05/07/2024</v>
+      </c>
+      <c r="F2011" t="str">
+        <f t="shared" ref="F2011:F2049" si="139">MID(B2011,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G2011" t="str">
+        <f t="shared" ref="G2011:G2049" si="140">LEFT(B2011,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2012">
+        <v>20240706</v>
+      </c>
+      <c r="C2012">
+        <v>17</v>
+      </c>
+      <c r="D2012">
+        <v>19</v>
+      </c>
+      <c r="E2012" t="str">
+        <f t="shared" si="138"/>
+        <v>06/07/2024</v>
+      </c>
+      <c r="F2012" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2012" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2013">
+        <v>20240701</v>
+      </c>
+      <c r="C2013">
+        <v>15</v>
+      </c>
+      <c r="D2013">
+        <v>19</v>
+      </c>
+      <c r="E2013" t="str">
+        <f t="shared" si="138"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="F2013" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2013" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2014">
+        <v>20240703</v>
+      </c>
+      <c r="C2014">
+        <v>15</v>
+      </c>
+      <c r="D2014">
+        <v>17</v>
+      </c>
+      <c r="E2014" t="str">
+        <f t="shared" si="138"/>
+        <v>03/07/2024</v>
+      </c>
+      <c r="F2014" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2014" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2015" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2015">
+        <v>20240704</v>
+      </c>
+      <c r="C2015">
+        <v>14</v>
+      </c>
+      <c r="D2015">
+        <v>15</v>
+      </c>
+      <c r="E2015" t="str">
+        <f t="shared" si="138"/>
+        <v>04/07/2024</v>
+      </c>
+      <c r="F2015" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2015" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2016">
+        <v>20240704</v>
+      </c>
+      <c r="C2016">
+        <v>13</v>
+      </c>
+      <c r="D2016">
+        <v>19</v>
+      </c>
+      <c r="E2016" t="str">
+        <f t="shared" si="138"/>
+        <v>04/07/2024</v>
+      </c>
+      <c r="F2016" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2016" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2017" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2017">
+        <v>20240706</v>
+      </c>
+      <c r="C2017">
+        <v>11</v>
+      </c>
+      <c r="D2017">
+        <v>14</v>
+      </c>
+      <c r="E2017" t="str">
+        <f t="shared" si="138"/>
+        <v>06/07/2024</v>
+      </c>
+      <c r="F2017" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2017" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2018">
+        <v>20240707</v>
+      </c>
+      <c r="C2018">
+        <v>11</v>
+      </c>
+      <c r="D2018">
+        <v>23</v>
+      </c>
+      <c r="E2018" t="str">
+        <f t="shared" si="138"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="F2018" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2018" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2019" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2019">
+        <v>20240703</v>
+      </c>
+      <c r="C2019">
+        <v>10</v>
+      </c>
+      <c r="D2019">
+        <v>11</v>
+      </c>
+      <c r="E2019" t="str">
+        <f t="shared" si="138"/>
+        <v>03/07/2024</v>
+      </c>
+      <c r="F2019" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2019" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2020" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2020">
+        <v>20240701</v>
+      </c>
+      <c r="C2020">
+        <v>9</v>
+      </c>
+      <c r="D2020">
+        <v>10</v>
+      </c>
+      <c r="E2020" t="str">
+        <f t="shared" si="138"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="F2020" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2020" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2021" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2021">
+        <v>20240704</v>
+      </c>
+      <c r="C2021">
+        <v>9</v>
+      </c>
+      <c r="D2021">
+        <v>10</v>
+      </c>
+      <c r="E2021" t="str">
+        <f t="shared" si="138"/>
+        <v>04/07/2024</v>
+      </c>
+      <c r="F2021" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2021" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2022" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2022">
+        <v>20240705</v>
+      </c>
+      <c r="C2022">
+        <v>7</v>
+      </c>
+      <c r="D2022">
+        <v>7</v>
+      </c>
+      <c r="E2022" t="str">
+        <f t="shared" si="138"/>
+        <v>05/07/2024</v>
+      </c>
+      <c r="F2022" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2022" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2023" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2023">
+        <v>20240702</v>
+      </c>
+      <c r="C2023">
+        <v>6</v>
+      </c>
+      <c r="D2023">
+        <v>10</v>
+      </c>
+      <c r="E2023" t="str">
+        <f t="shared" si="138"/>
+        <v>02/07/2024</v>
+      </c>
+      <c r="F2023" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2023" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2024" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2024">
+        <v>20240703</v>
+      </c>
+      <c r="C2024">
+        <v>6</v>
+      </c>
+      <c r="D2024">
+        <v>9</v>
+      </c>
+      <c r="E2024" t="str">
+        <f t="shared" si="138"/>
+        <v>03/07/2024</v>
+      </c>
+      <c r="F2024" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2024" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2025" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2025">
+        <v>20240704</v>
+      </c>
+      <c r="C2025">
+        <v>6</v>
+      </c>
+      <c r="D2025">
+        <v>7</v>
+      </c>
+      <c r="E2025" t="str">
+        <f t="shared" si="138"/>
+        <v>04/07/2024</v>
+      </c>
+      <c r="F2025" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2025" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2026" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2026">
+        <v>20240706</v>
+      </c>
+      <c r="C2026">
+        <v>6</v>
+      </c>
+      <c r="D2026">
+        <v>6</v>
+      </c>
+      <c r="E2026" t="str">
+        <f t="shared" si="138"/>
+        <v>06/07/2024</v>
+      </c>
+      <c r="F2026" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2026" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2027" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2027">
+        <v>20240707</v>
+      </c>
+      <c r="C2027">
+        <v>4</v>
+      </c>
+      <c r="D2027">
+        <v>4</v>
+      </c>
+      <c r="E2027" t="str">
+        <f t="shared" si="138"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="F2027" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2027" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2028" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2028">
+        <v>20240703</v>
+      </c>
+      <c r="C2028">
+        <v>4</v>
+      </c>
+      <c r="D2028">
+        <v>5</v>
+      </c>
+      <c r="E2028" t="str">
+        <f t="shared" si="138"/>
+        <v>03/07/2024</v>
+      </c>
+      <c r="F2028" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2028" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2029" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2029">
+        <v>20240705</v>
+      </c>
+      <c r="C2029">
+        <v>4</v>
+      </c>
+      <c r="D2029">
+        <v>4</v>
+      </c>
+      <c r="E2029" t="str">
+        <f t="shared" si="138"/>
+        <v>05/07/2024</v>
+      </c>
+      <c r="F2029" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2029" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2030" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2030">
+        <v>20240702</v>
+      </c>
+      <c r="C2030">
+        <v>3</v>
+      </c>
+      <c r="D2030">
+        <v>6</v>
+      </c>
+      <c r="E2030" t="str">
+        <f t="shared" si="138"/>
+        <v>02/07/2024</v>
+      </c>
+      <c r="F2030" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2030" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2031" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2031">
+        <v>20240705</v>
+      </c>
+      <c r="C2031">
+        <v>3</v>
+      </c>
+      <c r="D2031">
+        <v>3</v>
+      </c>
+      <c r="E2031" t="str">
+        <f t="shared" si="138"/>
+        <v>05/07/2024</v>
+      </c>
+      <c r="F2031" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2031" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2032" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2032">
+        <v>20240706</v>
+      </c>
+      <c r="C2032">
+        <v>2</v>
+      </c>
+      <c r="D2032">
+        <v>3</v>
+      </c>
+      <c r="E2032" t="str">
+        <f t="shared" si="138"/>
+        <v>06/07/2024</v>
+      </c>
+      <c r="F2032" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2032" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2033" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2033">
+        <v>20240707</v>
+      </c>
+      <c r="C2033">
+        <v>2</v>
+      </c>
+      <c r="D2033">
+        <v>4</v>
+      </c>
+      <c r="E2033" t="str">
+        <f t="shared" si="138"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="F2033" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2033" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2034" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2034">
+        <v>20240707</v>
+      </c>
+      <c r="C2034">
+        <v>2</v>
+      </c>
+      <c r="D2034">
+        <v>3</v>
+      </c>
+      <c r="E2034" t="str">
+        <f t="shared" si="138"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="F2034" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2034" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2035" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2035">
+        <v>20240704</v>
+      </c>
+      <c r="C2035">
+        <v>2</v>
+      </c>
+      <c r="D2035">
+        <v>3</v>
+      </c>
+      <c r="E2035" t="str">
+        <f t="shared" si="138"/>
+        <v>04/07/2024</v>
+      </c>
+      <c r="F2035" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2035" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2036" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2036">
+        <v>20240701</v>
+      </c>
+      <c r="C2036">
+        <v>2</v>
+      </c>
+      <c r="D2036">
+        <v>4</v>
+      </c>
+      <c r="E2036" t="str">
+        <f t="shared" si="138"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="F2036" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2036" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2037" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2037">
+        <v>20240704</v>
+      </c>
+      <c r="C2037">
+        <v>2</v>
+      </c>
+      <c r="D2037">
+        <v>3</v>
+      </c>
+      <c r="E2037" t="str">
+        <f t="shared" si="138"/>
+        <v>04/07/2024</v>
+      </c>
+      <c r="F2037" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2037" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2038" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2038">
+        <v>20240701</v>
+      </c>
+      <c r="C2038">
+        <v>1</v>
+      </c>
+      <c r="D2038">
+        <v>2</v>
+      </c>
+      <c r="E2038" t="str">
+        <f t="shared" si="138"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="F2038" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2038" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2039" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2039">
+        <v>20240702</v>
+      </c>
+      <c r="C2039">
+        <v>1</v>
+      </c>
+      <c r="D2039">
+        <v>2</v>
+      </c>
+      <c r="E2039" t="str">
+        <f t="shared" si="138"/>
+        <v>02/07/2024</v>
+      </c>
+      <c r="F2039" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2039" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2040" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2040">
+        <v>20240701</v>
+      </c>
+      <c r="C2040">
+        <v>1</v>
+      </c>
+      <c r="D2040">
+        <v>2</v>
+      </c>
+      <c r="E2040" t="str">
+        <f t="shared" si="138"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="F2040" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2040" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2041" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2041">
+        <v>20240702</v>
+      </c>
+      <c r="C2041">
+        <v>1</v>
+      </c>
+      <c r="D2041">
+        <v>1</v>
+      </c>
+      <c r="E2041" t="str">
+        <f t="shared" si="138"/>
+        <v>02/07/2024</v>
+      </c>
+      <c r="F2041" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2041" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2042" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2042">
+        <v>20240701</v>
+      </c>
+      <c r="C2042">
+        <v>1</v>
+      </c>
+      <c r="D2042">
+        <v>1</v>
+      </c>
+      <c r="E2042" t="str">
+        <f t="shared" si="138"/>
+        <v>01/07/2024</v>
+      </c>
+      <c r="F2042" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2042" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2043" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2043">
+        <v>20240702</v>
+      </c>
+      <c r="C2043">
+        <v>1</v>
+      </c>
+      <c r="D2043">
+        <v>1</v>
+      </c>
+      <c r="E2043" t="str">
+        <f t="shared" si="138"/>
+        <v>02/07/2024</v>
+      </c>
+      <c r="F2043" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2043" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2044" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2044">
+        <v>20240703</v>
+      </c>
+      <c r="C2044">
+        <v>1</v>
+      </c>
+      <c r="D2044">
+        <v>2</v>
+      </c>
+      <c r="E2044" t="str">
+        <f t="shared" si="138"/>
+        <v>03/07/2024</v>
+      </c>
+      <c r="F2044" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2044" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2045" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2045">
+        <v>20240707</v>
+      </c>
+      <c r="C2045">
+        <v>1</v>
+      </c>
+      <c r="D2045">
+        <v>1</v>
+      </c>
+      <c r="E2045" t="str">
+        <f t="shared" si="138"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="F2045" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2045" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2046" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2046">
+        <v>20240706</v>
+      </c>
+      <c r="C2046">
+        <v>1</v>
+      </c>
+      <c r="D2046">
+        <v>2</v>
+      </c>
+      <c r="E2046" t="str">
+        <f t="shared" si="138"/>
+        <v>06/07/2024</v>
+      </c>
+      <c r="F2046" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2046" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2047" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2047">
+        <v>20240707</v>
+      </c>
+      <c r="C2047">
+        <v>1</v>
+      </c>
+      <c r="D2047">
+        <v>2</v>
+      </c>
+      <c r="E2047" t="str">
+        <f t="shared" si="138"/>
+        <v>07/07/2024</v>
+      </c>
+      <c r="F2047" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2047" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2048" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2048">
+        <v>20240705</v>
+      </c>
+      <c r="C2048">
+        <v>0</v>
+      </c>
+      <c r="D2048">
+        <v>2</v>
+      </c>
+      <c r="E2048" t="str">
+        <f t="shared" si="138"/>
+        <v>05/07/2024</v>
+      </c>
+      <c r="F2048" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2048" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2049" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2049">
+        <v>20240706</v>
+      </c>
+      <c r="C2049">
+        <v>0</v>
+      </c>
+      <c r="D2049">
+        <v>1</v>
+      </c>
+      <c r="E2049" t="str">
+        <f t="shared" si="138"/>
+        <v>06/07/2024</v>
+      </c>
+      <c r="F2049" t="str">
+        <f t="shared" si="139"/>
+        <v>07</v>
+      </c>
+      <c r="G2049" t="str">
+        <f t="shared" si="140"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2050">
+        <v>20240714</v>
+      </c>
+      <c r="C2050">
+        <v>45</v>
+      </c>
+      <c r="D2050">
+        <v>49</v>
+      </c>
+      <c r="E2050" t="str">
+        <f t="shared" ref="E2050" si="141">_xlfn.CONCAT(RIGHT(B2050,2),"/",MID(B2050,5,2),"/",LEFT(B2050,4))</f>
+        <v>14/07/2024</v>
+      </c>
+      <c r="F2050" t="str">
+        <f t="shared" ref="F2050" si="142">MID(B2050,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G2050" t="str">
+        <f t="shared" ref="G2050" si="143">LEFT(B2050,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2051">
+        <v>20240711</v>
+      </c>
+      <c r="C2051">
+        <v>35</v>
+      </c>
+      <c r="D2051">
+        <v>44</v>
+      </c>
+      <c r="E2051" t="str">
+        <f t="shared" ref="E2051:E2087" si="144">_xlfn.CONCAT(RIGHT(B2051,2),"/",MID(B2051,5,2),"/",LEFT(B2051,4))</f>
+        <v>11/07/2024</v>
+      </c>
+      <c r="F2051" t="str">
+        <f t="shared" ref="F2051:F2087" si="145">MID(B2051,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G2051" t="str">
+        <f t="shared" ref="G2051:G2087" si="146">LEFT(B2051,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2052">
+        <v>20240712</v>
+      </c>
+      <c r="C2052">
+        <v>34</v>
+      </c>
+      <c r="D2052">
+        <v>44</v>
+      </c>
+      <c r="E2052" t="str">
+        <f t="shared" si="144"/>
+        <v>12/07/2024</v>
+      </c>
+      <c r="F2052" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2052" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2053">
+        <v>20240709</v>
+      </c>
+      <c r="C2053">
+        <v>22</v>
+      </c>
+      <c r="D2053">
+        <v>29</v>
+      </c>
+      <c r="E2053" t="str">
+        <f t="shared" si="144"/>
+        <v>09/07/2024</v>
+      </c>
+      <c r="F2053" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2053" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2054">
+        <v>20240710</v>
+      </c>
+      <c r="C2054">
+        <v>22</v>
+      </c>
+      <c r="D2054">
+        <v>25</v>
+      </c>
+      <c r="E2054" t="str">
+        <f t="shared" si="144"/>
+        <v>10/07/2024</v>
+      </c>
+      <c r="F2054" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2054" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2055">
+        <v>20240708</v>
+      </c>
+      <c r="C2055">
+        <v>16</v>
+      </c>
+      <c r="D2055">
+        <v>30</v>
+      </c>
+      <c r="E2055" t="str">
+        <f t="shared" si="144"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="F2055" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2055" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2056">
+        <v>20240713</v>
+      </c>
+      <c r="C2056">
+        <v>13</v>
+      </c>
+      <c r="D2056">
+        <v>22</v>
+      </c>
+      <c r="E2056" t="str">
+        <f t="shared" si="144"/>
+        <v>13/07/2024</v>
+      </c>
+      <c r="F2056" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2056" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2057" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2057">
+        <v>20240708</v>
+      </c>
+      <c r="C2057">
+        <v>9</v>
+      </c>
+      <c r="D2057">
+        <v>10</v>
+      </c>
+      <c r="E2057" t="str">
+        <f t="shared" si="144"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="F2057" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2057" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2058" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2058">
+        <v>20240709</v>
+      </c>
+      <c r="C2058">
+        <v>9</v>
+      </c>
+      <c r="D2058">
+        <v>9</v>
+      </c>
+      <c r="E2058" t="str">
+        <f t="shared" si="144"/>
+        <v>09/07/2024</v>
+      </c>
+      <c r="F2058" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2058" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2059" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2059">
+        <v>20240708</v>
+      </c>
+      <c r="C2059">
+        <v>8</v>
+      </c>
+      <c r="D2059">
+        <v>9</v>
+      </c>
+      <c r="E2059" t="str">
+        <f t="shared" si="144"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="F2059" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2059" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2060" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2060">
+        <v>20240710</v>
+      </c>
+      <c r="C2060">
+        <v>8</v>
+      </c>
+      <c r="D2060">
+        <v>12</v>
+      </c>
+      <c r="E2060" t="str">
+        <f t="shared" si="144"/>
+        <v>10/07/2024</v>
+      </c>
+      <c r="F2060" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2060" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2061" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2061">
+        <v>20240714</v>
+      </c>
+      <c r="C2061">
+        <v>7</v>
+      </c>
+      <c r="D2061">
+        <v>7</v>
+      </c>
+      <c r="E2061" t="str">
+        <f t="shared" si="144"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="F2061" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2061" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2062" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2062">
+        <v>20240709</v>
+      </c>
+      <c r="C2062">
+        <v>6</v>
+      </c>
+      <c r="D2062">
+        <v>8</v>
+      </c>
+      <c r="E2062" t="str">
+        <f t="shared" si="144"/>
+        <v>09/07/2024</v>
+      </c>
+      <c r="F2062" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2062" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2063" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2063">
+        <v>20240709</v>
+      </c>
+      <c r="C2063">
+        <v>6</v>
+      </c>
+      <c r="D2063">
+        <v>8</v>
+      </c>
+      <c r="E2063" t="str">
+        <f t="shared" si="144"/>
+        <v>09/07/2024</v>
+      </c>
+      <c r="F2063" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2063" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2064" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2064">
+        <v>20240712</v>
+      </c>
+      <c r="C2064">
+        <v>6</v>
+      </c>
+      <c r="D2064">
+        <v>6</v>
+      </c>
+      <c r="E2064" t="str">
+        <f t="shared" si="144"/>
+        <v>12/07/2024</v>
+      </c>
+      <c r="F2064" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2064" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2065" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2065">
+        <v>20240709</v>
+      </c>
+      <c r="C2065">
+        <v>5</v>
+      </c>
+      <c r="D2065">
+        <v>5</v>
+      </c>
+      <c r="E2065" t="str">
+        <f t="shared" si="144"/>
+        <v>09/07/2024</v>
+      </c>
+      <c r="F2065" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2065" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2066" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2066">
+        <v>20240710</v>
+      </c>
+      <c r="C2066">
+        <v>5</v>
+      </c>
+      <c r="D2066">
+        <v>10</v>
+      </c>
+      <c r="E2066" t="str">
+        <f t="shared" si="144"/>
+        <v>10/07/2024</v>
+      </c>
+      <c r="F2066" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2066" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2067" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2067">
+        <v>20240711</v>
+      </c>
+      <c r="C2067">
+        <v>4</v>
+      </c>
+      <c r="D2067">
+        <v>8</v>
+      </c>
+      <c r="E2067" t="str">
+        <f t="shared" si="144"/>
+        <v>11/07/2024</v>
+      </c>
+      <c r="F2067" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2067" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2068" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2068">
+        <v>20240711</v>
+      </c>
+      <c r="C2068">
+        <v>4</v>
+      </c>
+      <c r="D2068">
+        <v>5</v>
+      </c>
+      <c r="E2068" t="str">
+        <f t="shared" si="144"/>
+        <v>11/07/2024</v>
+      </c>
+      <c r="F2068" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2068" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2069" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2069">
+        <v>20240712</v>
+      </c>
+      <c r="C2069">
+        <v>3</v>
+      </c>
+      <c r="D2069">
+        <v>6</v>
+      </c>
+      <c r="E2069" t="str">
+        <f t="shared" si="144"/>
+        <v>12/07/2024</v>
+      </c>
+      <c r="F2069" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2069" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2070" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2070">
+        <v>20240713</v>
+      </c>
+      <c r="C2070">
+        <v>3</v>
+      </c>
+      <c r="D2070">
+        <v>3</v>
+      </c>
+      <c r="E2070" t="str">
+        <f t="shared" si="144"/>
+        <v>13/07/2024</v>
+      </c>
+      <c r="F2070" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2070" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2071" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2071">
+        <v>20240711</v>
+      </c>
+      <c r="C2071">
+        <v>3</v>
+      </c>
+      <c r="D2071">
+        <v>8</v>
+      </c>
+      <c r="E2071" t="str">
+        <f t="shared" si="144"/>
+        <v>11/07/2024</v>
+      </c>
+      <c r="F2071" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2071" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2072" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2072">
+        <v>20240708</v>
+      </c>
+      <c r="C2072">
+        <v>3</v>
+      </c>
+      <c r="D2072">
+        <v>4</v>
+      </c>
+      <c r="E2072" t="str">
+        <f t="shared" si="144"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="F2072" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2072" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2073" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2073">
+        <v>20240708</v>
+      </c>
+      <c r="C2073">
+        <v>2</v>
+      </c>
+      <c r="D2073">
+        <v>2</v>
+      </c>
+      <c r="E2073" t="str">
+        <f t="shared" si="144"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="F2073" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2073" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2074" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2074">
+        <v>20240710</v>
+      </c>
+      <c r="C2074">
+        <v>2</v>
+      </c>
+      <c r="D2074">
+        <v>8</v>
+      </c>
+      <c r="E2074" t="str">
+        <f t="shared" si="144"/>
+        <v>10/07/2024</v>
+      </c>
+      <c r="F2074" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2074" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2075" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2075">
+        <v>20240711</v>
+      </c>
+      <c r="C2075">
+        <v>2</v>
+      </c>
+      <c r="D2075">
+        <v>3</v>
+      </c>
+      <c r="E2075" t="str">
+        <f t="shared" si="144"/>
+        <v>11/07/2024</v>
+      </c>
+      <c r="F2075" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2075" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2076" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2076">
+        <v>20240712</v>
+      </c>
+      <c r="C2076">
+        <v>2</v>
+      </c>
+      <c r="D2076">
+        <v>2</v>
+      </c>
+      <c r="E2076" t="str">
+        <f t="shared" si="144"/>
+        <v>12/07/2024</v>
+      </c>
+      <c r="F2076" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2076" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2077" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2077">
+        <v>20240714</v>
+      </c>
+      <c r="C2077">
+        <v>2</v>
+      </c>
+      <c r="D2077">
+        <v>2</v>
+      </c>
+      <c r="E2077" t="str">
+        <f t="shared" si="144"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="F2077" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2077" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2078" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2078">
+        <v>20240713</v>
+      </c>
+      <c r="C2078">
+        <v>2</v>
+      </c>
+      <c r="D2078">
+        <v>3</v>
+      </c>
+      <c r="E2078" t="str">
+        <f t="shared" si="144"/>
+        <v>13/07/2024</v>
+      </c>
+      <c r="F2078" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2078" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2079" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2079">
+        <v>20240708</v>
+      </c>
+      <c r="C2079">
+        <v>2</v>
+      </c>
+      <c r="D2079">
+        <v>2</v>
+      </c>
+      <c r="E2079" t="str">
+        <f t="shared" si="144"/>
+        <v>08/07/2024</v>
+      </c>
+      <c r="F2079" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2079" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2080" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2080">
+        <v>20240713</v>
+      </c>
+      <c r="C2080">
+        <v>1</v>
+      </c>
+      <c r="D2080">
+        <v>1</v>
+      </c>
+      <c r="E2080" t="str">
+        <f t="shared" si="144"/>
+        <v>13/07/2024</v>
+      </c>
+      <c r="F2080" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2080" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2081" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2081">
+        <v>20240714</v>
+      </c>
+      <c r="C2081">
+        <v>1</v>
+      </c>
+      <c r="D2081">
+        <v>1</v>
+      </c>
+      <c r="E2081" t="str">
+        <f t="shared" si="144"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="F2081" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2081" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2082" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2082">
+        <v>20240710</v>
+      </c>
+      <c r="C2082">
+        <v>1</v>
+      </c>
+      <c r="D2082">
+        <v>1</v>
+      </c>
+      <c r="E2082" t="str">
+        <f t="shared" si="144"/>
+        <v>10/07/2024</v>
+      </c>
+      <c r="F2082" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2082" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2083" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2083">
+        <v>20240714</v>
+      </c>
+      <c r="C2083">
+        <v>1</v>
+      </c>
+      <c r="D2083">
+        <v>1</v>
+      </c>
+      <c r="E2083" t="str">
+        <f t="shared" si="144"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="F2083" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2083" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2084" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2084">
+        <v>20240709</v>
+      </c>
+      <c r="C2084">
+        <v>1</v>
+      </c>
+      <c r="D2084">
+        <v>3</v>
+      </c>
+      <c r="E2084" t="str">
+        <f t="shared" si="144"/>
+        <v>09/07/2024</v>
+      </c>
+      <c r="F2084" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2084" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2085" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2085">
+        <v>20240714</v>
+      </c>
+      <c r="C2085">
+        <v>1</v>
+      </c>
+      <c r="D2085">
+        <v>1</v>
+      </c>
+      <c r="E2085" t="str">
+        <f t="shared" si="144"/>
+        <v>14/07/2024</v>
+      </c>
+      <c r="F2085" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2085" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2086" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2086">
+        <v>20240710</v>
+      </c>
+      <c r="C2086">
+        <v>0</v>
+      </c>
+      <c r="D2086">
+        <v>1</v>
+      </c>
+      <c r="E2086" t="str">
+        <f t="shared" si="144"/>
+        <v>10/07/2024</v>
+      </c>
+      <c r="F2086" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2086" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2087" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2087">
+        <v>20240711</v>
+      </c>
+      <c r="C2087">
+        <v>0</v>
+      </c>
+      <c r="D2087">
+        <v>1</v>
+      </c>
+      <c r="E2087" t="str">
+        <f t="shared" si="144"/>
+        <v>11/07/2024</v>
+      </c>
+      <c r="F2087" t="str">
+        <f t="shared" si="145"/>
+        <v>07</v>
+      </c>
+      <c r="G2087" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2088" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2088">
+        <v>20240716</v>
+      </c>
+      <c r="C2088">
+        <v>49</v>
+      </c>
+      <c r="D2088">
+        <v>50</v>
+      </c>
+      <c r="E2088" t="str">
+        <f t="shared" ref="E2088" si="147">_xlfn.CONCAT(RIGHT(B2088,2),"/",MID(B2088,5,2),"/",LEFT(B2088,4))</f>
+        <v>16/07/2024</v>
+      </c>
+      <c r="F2088" t="str">
+        <f t="shared" ref="F2088" si="148">MID(B2088,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G2088" t="str">
+        <f t="shared" ref="G2088" si="149">LEFT(B2088,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2089" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2089">
+        <v>20240718</v>
+      </c>
+      <c r="C2089">
+        <v>29</v>
+      </c>
+      <c r="D2089">
+        <v>35</v>
+      </c>
+      <c r="E2089" t="str">
+        <f t="shared" ref="E2089:E2127" si="150">_xlfn.CONCAT(RIGHT(B2089,2),"/",MID(B2089,5,2),"/",LEFT(B2089,4))</f>
+        <v>18/07/2024</v>
+      </c>
+      <c r="F2089" t="str">
+        <f t="shared" ref="F2089:F2127" si="151">MID(B2089,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G2089" t="str">
+        <f t="shared" ref="G2089:G2127" si="152">LEFT(B2089,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2090">
+        <v>20240721</v>
+      </c>
+      <c r="C2090">
+        <v>27</v>
+      </c>
+      <c r="D2090">
+        <v>46</v>
+      </c>
+      <c r="E2090" t="str">
+        <f t="shared" si="150"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="F2090" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2090" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2091">
+        <v>20240718</v>
+      </c>
+      <c r="C2091">
+        <v>20</v>
+      </c>
+      <c r="D2091">
+        <v>28</v>
+      </c>
+      <c r="E2091" t="str">
+        <f t="shared" si="150"/>
+        <v>18/07/2024</v>
+      </c>
+      <c r="F2091" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2091" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2092">
+        <v>20240720</v>
+      </c>
+      <c r="C2092">
+        <v>18</v>
+      </c>
+      <c r="D2092">
+        <v>22</v>
+      </c>
+      <c r="E2092" t="str">
+        <f t="shared" si="150"/>
+        <v>20/07/2024</v>
+      </c>
+      <c r="F2092" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2092" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2093">
+        <v>20240716</v>
+      </c>
+      <c r="C2093">
+        <v>16</v>
+      </c>
+      <c r="D2093">
+        <v>21</v>
+      </c>
+      <c r="E2093" t="str">
+        <f t="shared" si="150"/>
+        <v>16/07/2024</v>
+      </c>
+      <c r="F2093" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2093" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2094">
+        <v>20240715</v>
+      </c>
+      <c r="C2094">
+        <v>13</v>
+      </c>
+      <c r="D2094">
+        <v>16</v>
+      </c>
+      <c r="E2094" t="str">
+        <f t="shared" si="150"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="F2094" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2094" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2095">
+        <v>20240717</v>
+      </c>
+      <c r="C2095">
+        <v>13</v>
+      </c>
+      <c r="D2095">
+        <v>15</v>
+      </c>
+      <c r="E2095" t="str">
+        <f t="shared" si="150"/>
+        <v>17/07/2024</v>
+      </c>
+      <c r="F2095" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2095" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2096" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2096">
+        <v>20240719</v>
+      </c>
+      <c r="C2096">
+        <v>11</v>
+      </c>
+      <c r="D2096">
+        <v>11</v>
+      </c>
+      <c r="E2096" t="str">
+        <f t="shared" si="150"/>
+        <v>19/07/2024</v>
+      </c>
+      <c r="F2096" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2096" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2097" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2097">
+        <v>20240720</v>
+      </c>
+      <c r="C2097">
+        <v>10</v>
+      </c>
+      <c r="D2097">
+        <v>10</v>
+      </c>
+      <c r="E2097" t="str">
+        <f t="shared" si="150"/>
+        <v>20/07/2024</v>
+      </c>
+      <c r="F2097" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2097" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2098" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2098">
+        <v>20240721</v>
+      </c>
+      <c r="C2098">
+        <v>9</v>
+      </c>
+      <c r="D2098">
+        <v>10</v>
+      </c>
+      <c r="E2098" t="str">
+        <f t="shared" si="150"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="F2098" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2098" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2099">
+        <v>20240719</v>
+      </c>
+      <c r="C2099">
+        <v>9</v>
+      </c>
+      <c r="D2099">
+        <v>15</v>
+      </c>
+      <c r="E2099" t="str">
+        <f t="shared" si="150"/>
+        <v>19/07/2024</v>
+      </c>
+      <c r="F2099" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2099" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2100">
+        <v>20240717</v>
+      </c>
+      <c r="C2100">
+        <v>8</v>
+      </c>
+      <c r="D2100">
+        <v>10</v>
+      </c>
+      <c r="E2100" t="str">
+        <f t="shared" si="150"/>
+        <v>17/07/2024</v>
+      </c>
+      <c r="F2100" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2100" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2101">
+        <v>20240715</v>
+      </c>
+      <c r="C2101">
+        <v>7</v>
+      </c>
+      <c r="D2101">
+        <v>10</v>
+      </c>
+      <c r="E2101" t="str">
+        <f t="shared" si="150"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="F2101" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2101" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2102">
+        <v>20240718</v>
+      </c>
+      <c r="C2102">
+        <v>7</v>
+      </c>
+      <c r="D2102">
+        <v>9</v>
+      </c>
+      <c r="E2102" t="str">
+        <f t="shared" si="150"/>
+        <v>18/07/2024</v>
+      </c>
+      <c r="F2102" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2102" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2103">
+        <v>20240718</v>
+      </c>
+      <c r="C2103">
+        <v>7</v>
+      </c>
+      <c r="D2103">
+        <v>12</v>
+      </c>
+      <c r="E2103" t="str">
+        <f t="shared" si="150"/>
+        <v>18/07/2024</v>
+      </c>
+      <c r="F2103" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2103" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2104">
+        <v>20240719</v>
+      </c>
+      <c r="C2104">
+        <v>6</v>
+      </c>
+      <c r="D2104">
+        <v>7</v>
+      </c>
+      <c r="E2104" t="str">
+        <f t="shared" si="150"/>
+        <v>19/07/2024</v>
+      </c>
+      <c r="F2104" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2104" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2105">
+        <v>20240721</v>
+      </c>
+      <c r="C2105">
+        <v>6</v>
+      </c>
+      <c r="D2105">
+        <v>7</v>
+      </c>
+      <c r="E2105" t="str">
+        <f t="shared" si="150"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="F2105" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2105" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2106">
+        <v>20240719</v>
+      </c>
+      <c r="C2106">
+        <v>6</v>
+      </c>
+      <c r="D2106">
+        <v>7</v>
+      </c>
+      <c r="E2106" t="str">
+        <f t="shared" si="150"/>
+        <v>19/07/2024</v>
+      </c>
+      <c r="F2106" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2106" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2107">
+        <v>20240717</v>
+      </c>
+      <c r="C2107">
+        <v>5</v>
+      </c>
+      <c r="D2107">
+        <v>7</v>
+      </c>
+      <c r="E2107" t="str">
+        <f t="shared" si="150"/>
+        <v>17/07/2024</v>
+      </c>
+      <c r="F2107" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2107" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2108">
+        <v>20240720</v>
+      </c>
+      <c r="C2108">
+        <v>4</v>
+      </c>
+      <c r="D2108">
+        <v>4</v>
+      </c>
+      <c r="E2108" t="str">
+        <f t="shared" si="150"/>
+        <v>20/07/2024</v>
+      </c>
+      <c r="F2108" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2108" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2109">
+        <v>20240717</v>
+      </c>
+      <c r="C2109">
+        <v>4</v>
+      </c>
+      <c r="D2109">
+        <v>6</v>
+      </c>
+      <c r="E2109" t="str">
+        <f t="shared" si="150"/>
+        <v>17/07/2024</v>
+      </c>
+      <c r="F2109" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2109" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2110">
+        <v>20240721</v>
+      </c>
+      <c r="C2110">
+        <v>4</v>
+      </c>
+      <c r="D2110">
+        <v>5</v>
+      </c>
+      <c r="E2110" t="str">
+        <f t="shared" si="150"/>
+        <v>21/07/2024</v>
+      </c>
+      <c r="F2110" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2110" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2111">
+        <v>20240717</v>
+      </c>
+      <c r="C2111">
+        <v>4</v>
+      </c>
+      <c r="D2111">
+        <v>4</v>
+      </c>
+      <c r="E2111" t="str">
+        <f t="shared" si="150"/>
+        <v>17/07/2024</v>
+      </c>
+      <c r="F2111" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2111" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2112">
+        <v>20240718</v>
+      </c>
+      <c r="C2112">
+        <v>4</v>
+      </c>
+      <c r="D2112">
+        <v>6</v>
+      </c>
+      <c r="E2112" t="str">
+        <f t="shared" si="150"/>
+        <v>18/07/2024</v>
+      </c>
+      <c r="F2112" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2112" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2113">
+        <v>20240716</v>
+      </c>
+      <c r="C2113">
+        <v>3</v>
+      </c>
+      <c r="D2113">
+        <v>4</v>
+      </c>
+      <c r="E2113" t="str">
+        <f t="shared" si="150"/>
+        <v>16/07/2024</v>
+      </c>
+      <c r="F2113" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2113" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2114">
+        <v>20240719</v>
+      </c>
+      <c r="C2114">
+        <v>3</v>
+      </c>
+      <c r="D2114">
+        <v>4</v>
+      </c>
+      <c r="E2114" t="str">
+        <f t="shared" si="150"/>
+        <v>19/07/2024</v>
+      </c>
+      <c r="F2114" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2114" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2115">
+        <v>20240720</v>
+      </c>
+      <c r="C2115">
+        <v>3</v>
+      </c>
+      <c r="D2115">
+        <v>5</v>
+      </c>
+      <c r="E2115" t="str">
+        <f t="shared" si="150"/>
+        <v>20/07/2024</v>
+      </c>
+      <c r="F2115" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2115" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2116">
+        <v>20240716</v>
+      </c>
+      <c r="C2116">
+        <v>2</v>
+      </c>
+      <c r="D2116">
+        <v>3</v>
+      </c>
+      <c r="E2116" t="str">
+        <f t="shared" si="150"/>
+        <v>16/07/2024</v>
+      </c>
+      <c r="F2116" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2116" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2117">
+        <v>20240715</v>
+      </c>
+      <c r="C2117">
+        <v>2</v>
+      </c>
+      <c r="D2117">
+        <v>2</v>
+      </c>
+      <c r="E2117" t="str">
+        <f t="shared" si="150"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="F2117" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2117" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2118">
+        <v>20240720</v>
+      </c>
+      <c r="C2118">
+        <v>2</v>
+      </c>
+      <c r="D2118">
+        <v>4</v>
+      </c>
+      <c r="E2118" t="str">
+        <f t="shared" si="150"/>
+        <v>20/07/2024</v>
+      </c>
+      <c r="F2118" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2118" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2119">
+        <v>20240715</v>
+      </c>
+      <c r="C2119">
+        <v>2</v>
+      </c>
+      <c r="D2119">
+        <v>5</v>
+      </c>
+      <c r="E2119" t="str">
+        <f t="shared" si="150"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="F2119" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2119" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2120">
+        <v>20240716</v>
+      </c>
+      <c r="C2120">
+        <v>2</v>
+      </c>
+      <c r="D2120">
+        <v>3</v>
+      </c>
+      <c r="E2120" t="str">
+        <f t="shared" si="150"/>
+        <v>16/07/2024</v>
+      </c>
+      <c r="F2120" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2120" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2121">
+        <v>20240718</v>
+      </c>
+      <c r="C2121">
+        <v>2</v>
+      </c>
+      <c r="D2121">
+        <v>4</v>
+      </c>
+      <c r="E2121" t="str">
+        <f t="shared" si="150"/>
+        <v>18/07/2024</v>
+      </c>
+      <c r="F2121" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2121" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2122">
+        <v>20240719</v>
+      </c>
+      <c r="C2122">
+        <v>2</v>
+      </c>
+      <c r="D2122">
+        <v>2</v>
+      </c>
+      <c r="E2122" t="str">
+        <f t="shared" si="150"/>
+        <v>19/07/2024</v>
+      </c>
+      <c r="F2122" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2122" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2123">
+        <v>20240716</v>
+      </c>
+      <c r="C2123">
+        <v>1</v>
+      </c>
+      <c r="D2123">
+        <v>3</v>
+      </c>
+      <c r="E2123" t="str">
+        <f t="shared" si="150"/>
+        <v>16/07/2024</v>
+      </c>
+      <c r="F2123" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2123" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2124">
+        <v>20240717</v>
+      </c>
+      <c r="C2124">
+        <v>1</v>
+      </c>
+      <c r="D2124">
+        <v>1</v>
+      </c>
+      <c r="E2124" t="str">
+        <f t="shared" si="150"/>
+        <v>17/07/2024</v>
+      </c>
+      <c r="F2124" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2124" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2125">
+        <v>20240720</v>
+      </c>
+      <c r="C2125">
+        <v>1</v>
+      </c>
+      <c r="D2125">
+        <v>1</v>
+      </c>
+      <c r="E2125" t="str">
+        <f t="shared" si="150"/>
+        <v>20/07/2024</v>
+      </c>
+      <c r="F2125" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2125" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2126">
+        <v>20240715</v>
+      </c>
+      <c r="C2126">
+        <v>1</v>
+      </c>
+      <c r="D2126">
+        <v>2</v>
+      </c>
+      <c r="E2126" t="str">
+        <f t="shared" si="150"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="F2126" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2126" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2127">
+        <v>20240715</v>
+      </c>
+      <c r="C2127">
+        <v>0</v>
+      </c>
+      <c r="D2127">
+        <v>1</v>
+      </c>
+      <c r="E2127" t="str">
+        <f t="shared" si="150"/>
+        <v>15/07/2024</v>
+      </c>
+      <c r="F2127" t="str">
+        <f t="shared" si="151"/>
+        <v>07</v>
+      </c>
+      <c r="G2127" t="str">
+        <f t="shared" si="152"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2128">
+        <v>20240725</v>
+      </c>
+      <c r="C2128">
+        <v>34</v>
+      </c>
+      <c r="D2128">
+        <v>36</v>
+      </c>
+      <c r="E2128" t="str">
+        <f t="shared" ref="E2128" si="153">_xlfn.CONCAT(RIGHT(B2128,2),"/",MID(B2128,5,2),"/",LEFT(B2128,4))</f>
+        <v>25/07/2024</v>
+      </c>
+      <c r="F2128" t="str">
+        <f t="shared" ref="F2128" si="154">MID(B2128,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G2128" t="str">
+        <f t="shared" ref="G2128" si="155">LEFT(B2128,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2129">
+        <v>20240725</v>
+      </c>
+      <c r="C2129">
+        <v>32</v>
+      </c>
+      <c r="D2129">
+        <v>46</v>
+      </c>
+      <c r="E2129" t="str">
+        <f t="shared" ref="E2129:E2165" si="156">_xlfn.CONCAT(RIGHT(B2129,2),"/",MID(B2129,5,2),"/",LEFT(B2129,4))</f>
+        <v>25/07/2024</v>
+      </c>
+      <c r="F2129" t="str">
+        <f t="shared" ref="F2129:F2165" si="157">MID(B2129,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G2129" t="str">
+        <f t="shared" ref="G2129:G2165" si="158">LEFT(B2129,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2130">
+        <v>20240722</v>
+      </c>
+      <c r="C2130">
+        <v>28</v>
+      </c>
+      <c r="D2130">
+        <v>42</v>
+      </c>
+      <c r="E2130" t="str">
+        <f t="shared" si="156"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="F2130" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2130" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2131">
+        <v>20240724</v>
+      </c>
+      <c r="C2131">
+        <v>26</v>
+      </c>
+      <c r="D2131">
+        <v>35</v>
+      </c>
+      <c r="E2131" t="str">
+        <f t="shared" si="156"/>
+        <v>24/07/2024</v>
+      </c>
+      <c r="F2131" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2131" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2132">
+        <v>20240723</v>
+      </c>
+      <c r="C2132">
+        <v>25</v>
+      </c>
+      <c r="D2132">
+        <v>29</v>
+      </c>
+      <c r="E2132" t="str">
+        <f t="shared" si="156"/>
+        <v>23/07/2024</v>
+      </c>
+      <c r="F2132" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2132" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2133">
+        <v>20240724</v>
+      </c>
+      <c r="C2133">
+        <v>17</v>
+      </c>
+      <c r="D2133">
+        <v>18</v>
+      </c>
+      <c r="E2133" t="str">
+        <f t="shared" si="156"/>
+        <v>24/07/2024</v>
+      </c>
+      <c r="F2133" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2133" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2134">
+        <v>20240727</v>
+      </c>
+      <c r="C2134">
+        <v>17</v>
+      </c>
+      <c r="D2134">
+        <v>21</v>
+      </c>
+      <c r="E2134" t="str">
+        <f t="shared" si="156"/>
+        <v>27/07/2024</v>
+      </c>
+      <c r="F2134" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2134" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2135">
+        <v>20240722</v>
+      </c>
+      <c r="C2135">
+        <v>16</v>
+      </c>
+      <c r="D2135">
+        <v>19</v>
+      </c>
+      <c r="E2135" t="str">
+        <f t="shared" si="156"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="F2135" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2135" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2136">
+        <v>20240724</v>
+      </c>
+      <c r="C2136">
+        <v>15</v>
+      </c>
+      <c r="D2136">
+        <v>17</v>
+      </c>
+      <c r="E2136" t="str">
+        <f t="shared" si="156"/>
+        <v>24/07/2024</v>
+      </c>
+      <c r="F2136" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2136" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2137">
+        <v>20240727</v>
+      </c>
+      <c r="C2137">
+        <v>13</v>
+      </c>
+      <c r="D2137">
+        <v>15</v>
+      </c>
+      <c r="E2137" t="str">
+        <f t="shared" si="156"/>
+        <v>27/07/2024</v>
+      </c>
+      <c r="F2137" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2137" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2138">
+        <v>20240723</v>
+      </c>
+      <c r="C2138">
+        <v>13</v>
+      </c>
+      <c r="D2138">
+        <v>14</v>
+      </c>
+      <c r="E2138" t="str">
+        <f t="shared" si="156"/>
+        <v>23/07/2024</v>
+      </c>
+      <c r="F2138" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2138" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2139">
+        <v>20240725</v>
+      </c>
+      <c r="C2139">
+        <v>12</v>
+      </c>
+      <c r="D2139">
+        <v>17</v>
+      </c>
+      <c r="E2139" t="str">
+        <f t="shared" si="156"/>
+        <v>25/07/2024</v>
+      </c>
+      <c r="F2139" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2139" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2140">
+        <v>20240726</v>
+      </c>
+      <c r="C2140">
+        <v>11</v>
+      </c>
+      <c r="D2140">
+        <v>16</v>
+      </c>
+      <c r="E2140" t="str">
+        <f t="shared" si="156"/>
+        <v>26/07/2024</v>
+      </c>
+      <c r="F2140" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2140" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2141">
+        <v>20240728</v>
+      </c>
+      <c r="C2141">
+        <v>10</v>
+      </c>
+      <c r="D2141">
+        <v>14</v>
+      </c>
+      <c r="E2141" t="str">
+        <f t="shared" si="156"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="F2141" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2141" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2142">
+        <v>20240722</v>
+      </c>
+      <c r="C2142">
+        <v>10</v>
+      </c>
+      <c r="D2142">
+        <v>12</v>
+      </c>
+      <c r="E2142" t="str">
+        <f t="shared" si="156"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="F2142" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2142" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2143">
+        <v>20240722</v>
+      </c>
+      <c r="C2143">
+        <v>10</v>
+      </c>
+      <c r="D2143">
+        <v>10</v>
+      </c>
+      <c r="E2143" t="str">
+        <f t="shared" si="156"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="F2143" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2143" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2144">
+        <v>20240728</v>
+      </c>
+      <c r="C2144">
+        <v>9</v>
+      </c>
+      <c r="D2144">
+        <v>11</v>
+      </c>
+      <c r="E2144" t="str">
+        <f t="shared" si="156"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="F2144" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2144" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2145">
+        <v>20240728</v>
+      </c>
+      <c r="C2145">
+        <v>9</v>
+      </c>
+      <c r="D2145">
+        <v>20</v>
+      </c>
+      <c r="E2145" t="str">
+        <f t="shared" si="156"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="F2145" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2145" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2146">
+        <v>20240724</v>
+      </c>
+      <c r="C2146">
+        <v>9</v>
+      </c>
+      <c r="D2146">
+        <v>10</v>
+      </c>
+      <c r="E2146" t="str">
+        <f t="shared" si="156"/>
+        <v>24/07/2024</v>
+      </c>
+      <c r="F2146" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2146" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2147">
+        <v>20240724</v>
+      </c>
+      <c r="C2147">
+        <v>8</v>
+      </c>
+      <c r="D2147">
+        <v>8</v>
+      </c>
+      <c r="E2147" t="str">
+        <f t="shared" si="156"/>
+        <v>24/07/2024</v>
+      </c>
+      <c r="F2147" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2147" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2148">
+        <v>20240725</v>
+      </c>
+      <c r="C2148">
+        <v>8</v>
+      </c>
+      <c r="D2148">
+        <v>11</v>
+      </c>
+      <c r="E2148" t="str">
+        <f t="shared" si="156"/>
+        <v>25/07/2024</v>
+      </c>
+      <c r="F2148" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2148" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2149">
+        <v>20240723</v>
+      </c>
+      <c r="C2149">
+        <v>7</v>
+      </c>
+      <c r="D2149">
+        <v>9</v>
+      </c>
+      <c r="E2149" t="str">
+        <f t="shared" si="156"/>
+        <v>23/07/2024</v>
+      </c>
+      <c r="F2149" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2149" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2150">
+        <v>20240723</v>
+      </c>
+      <c r="C2150">
+        <v>6</v>
+      </c>
+      <c r="D2150">
+        <v>8</v>
+      </c>
+      <c r="E2150" t="str">
+        <f t="shared" si="156"/>
+        <v>23/07/2024</v>
+      </c>
+      <c r="F2150" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2150" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2151">
+        <v>20240726</v>
+      </c>
+      <c r="C2151">
+        <v>5</v>
+      </c>
+      <c r="D2151">
+        <v>7</v>
+      </c>
+      <c r="E2151" t="str">
+        <f t="shared" si="156"/>
+        <v>26/07/2024</v>
+      </c>
+      <c r="F2151" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2151" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2152">
+        <v>20240726</v>
+      </c>
+      <c r="C2152">
+        <v>5</v>
+      </c>
+      <c r="D2152">
+        <v>6</v>
+      </c>
+      <c r="E2152" t="str">
+        <f t="shared" si="156"/>
+        <v>26/07/2024</v>
+      </c>
+      <c r="F2152" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2152" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2153">
+        <v>20240728</v>
+      </c>
+      <c r="C2153">
+        <v>3</v>
+      </c>
+      <c r="D2153">
+        <v>4</v>
+      </c>
+      <c r="E2153" t="str">
+        <f t="shared" si="156"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="F2153" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2153" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2154">
+        <v>20240727</v>
+      </c>
+      <c r="C2154">
+        <v>3</v>
+      </c>
+      <c r="D2154">
+        <v>4</v>
+      </c>
+      <c r="E2154" t="str">
+        <f t="shared" si="156"/>
+        <v>27/07/2024</v>
+      </c>
+      <c r="F2154" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2154" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2155">
+        <v>20240722</v>
+      </c>
+      <c r="C2155">
+        <v>3</v>
+      </c>
+      <c r="D2155">
+        <v>3</v>
+      </c>
+      <c r="E2155" t="str">
+        <f t="shared" si="156"/>
+        <v>22/07/2024</v>
+      </c>
+      <c r="F2155" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2155" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2156">
+        <v>20240726</v>
+      </c>
+      <c r="C2156">
+        <v>2</v>
+      </c>
+      <c r="D2156">
+        <v>9</v>
+      </c>
+      <c r="E2156" t="str">
+        <f t="shared" si="156"/>
+        <v>26/07/2024</v>
+      </c>
+      <c r="F2156" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2156" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2157">
+        <v>20240725</v>
+      </c>
+      <c r="C2157">
+        <v>1</v>
+      </c>
+      <c r="D2157">
+        <v>2</v>
+      </c>
+      <c r="E2157" t="str">
+        <f t="shared" si="156"/>
+        <v>25/07/2024</v>
+      </c>
+      <c r="F2157" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2157" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2158">
+        <v>20240727</v>
+      </c>
+      <c r="C2158">
+        <v>1</v>
+      </c>
+      <c r="D2158">
+        <v>4</v>
+      </c>
+      <c r="E2158" t="str">
+        <f t="shared" si="156"/>
+        <v>27/07/2024</v>
+      </c>
+      <c r="F2158" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2158" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2159">
+        <v>20240723</v>
+      </c>
+      <c r="C2159">
+        <v>1</v>
+      </c>
+      <c r="D2159">
+        <v>2</v>
+      </c>
+      <c r="E2159" t="str">
+        <f t="shared" si="156"/>
+        <v>23/07/2024</v>
+      </c>
+      <c r="F2159" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2159" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2160">
+        <v>20240724</v>
+      </c>
+      <c r="C2160">
+        <v>1</v>
+      </c>
+      <c r="D2160">
+        <v>3</v>
+      </c>
+      <c r="E2160" t="str">
+        <f t="shared" si="156"/>
+        <v>24/07/2024</v>
+      </c>
+      <c r="F2160" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2160" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2161">
+        <v>20240726</v>
+      </c>
+      <c r="C2161">
+        <v>1</v>
+      </c>
+      <c r="D2161">
+        <v>1</v>
+      </c>
+      <c r="E2161" t="str">
+        <f t="shared" si="156"/>
+        <v>26/07/2024</v>
+      </c>
+      <c r="F2161" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2161" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2162">
+        <v>20240727</v>
+      </c>
+      <c r="C2162">
+        <v>1</v>
+      </c>
+      <c r="D2162">
+        <v>2</v>
+      </c>
+      <c r="E2162" t="str">
+        <f t="shared" si="156"/>
+        <v>27/07/2024</v>
+      </c>
+      <c r="F2162" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2162" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2163">
+        <v>20240728</v>
+      </c>
+      <c r="C2163">
+        <v>1</v>
+      </c>
+      <c r="D2163">
+        <v>1</v>
+      </c>
+      <c r="E2163" t="str">
+        <f t="shared" si="156"/>
+        <v>28/07/2024</v>
+      </c>
+      <c r="F2163" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2163" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2164">
+        <v>20240723</v>
+      </c>
+      <c r="C2164">
+        <v>1</v>
+      </c>
+      <c r="D2164">
+        <v>1</v>
+      </c>
+      <c r="E2164" t="str">
+        <f t="shared" si="156"/>
+        <v>23/07/2024</v>
+      </c>
+      <c r="F2164" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2164" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2165">
+        <v>20240725</v>
+      </c>
+      <c r="C2165">
+        <v>0</v>
+      </c>
+      <c r="D2165">
+        <v>1</v>
+      </c>
+      <c r="E2165" t="str">
+        <f t="shared" si="156"/>
+        <v>25/07/2024</v>
+      </c>
+      <c r="F2165" t="str">
+        <f t="shared" si="157"/>
+        <v>07</v>
+      </c>
+      <c r="G2165" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2166">
+        <v>20240804</v>
+      </c>
+      <c r="C2166">
+        <v>25</v>
+      </c>
+      <c r="D2166">
+        <v>35</v>
+      </c>
+      <c r="E2166" t="str">
+        <f t="shared" ref="E2166" si="159">_xlfn.CONCAT(RIGHT(B2166,2),"/",MID(B2166,5,2),"/",LEFT(B2166,4))</f>
+        <v>04/08/2024</v>
+      </c>
+      <c r="F2166" t="str">
+        <f t="shared" ref="F2166" si="160">MID(B2166,5,2)</f>
+        <v>08</v>
+      </c>
+      <c r="G2166" t="str">
+        <f t="shared" ref="G2166" si="161">LEFT(B2166,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2167">
+        <v>20240804</v>
+      </c>
+      <c r="C2167">
+        <v>24</v>
+      </c>
+      <c r="D2167">
+        <v>25</v>
+      </c>
+      <c r="E2167" t="str">
+        <f t="shared" ref="E2167:E2205" si="162">_xlfn.CONCAT(RIGHT(B2167,2),"/",MID(B2167,5,2),"/",LEFT(B2167,4))</f>
+        <v>04/08/2024</v>
+      </c>
+      <c r="F2167" t="str">
+        <f t="shared" ref="F2167:F2205" si="163">MID(B2167,5,2)</f>
+        <v>08</v>
+      </c>
+      <c r="G2167" t="str">
+        <f t="shared" ref="G2167:G2205" si="164">LEFT(B2167,4)</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2168">
+        <v>20240729</v>
+      </c>
+      <c r="C2168">
+        <v>24</v>
+      </c>
+      <c r="D2168">
+        <v>29</v>
+      </c>
+      <c r="E2168" t="str">
+        <f t="shared" si="162"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="F2168" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2168" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2169">
+        <v>20240801</v>
+      </c>
+      <c r="C2169">
+        <v>23</v>
+      </c>
+      <c r="D2169">
+        <v>28</v>
+      </c>
+      <c r="E2169" t="str">
+        <f t="shared" si="162"/>
+        <v>01/08/2024</v>
+      </c>
+      <c r="F2169" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2169" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2170">
+        <v>20240802</v>
+      </c>
+      <c r="C2170">
+        <v>21</v>
+      </c>
+      <c r="D2170">
+        <v>22</v>
+      </c>
+      <c r="E2170" t="str">
+        <f t="shared" si="162"/>
+        <v>02/08/2024</v>
+      </c>
+      <c r="F2170" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2170" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2171">
+        <v>20240729</v>
+      </c>
+      <c r="C2171">
+        <v>20</v>
+      </c>
+      <c r="D2171">
+        <v>20</v>
+      </c>
+      <c r="E2171" t="str">
+        <f t="shared" si="162"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="F2171" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2171" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2172">
+        <v>20240801</v>
+      </c>
+      <c r="C2172">
+        <v>19</v>
+      </c>
+      <c r="D2172">
+        <v>23</v>
+      </c>
+      <c r="E2172" t="str">
+        <f t="shared" si="162"/>
+        <v>01/08/2024</v>
+      </c>
+      <c r="F2172" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2172" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2173">
+        <v>20240731</v>
+      </c>
+      <c r="C2173">
+        <v>18</v>
+      </c>
+      <c r="D2173">
+        <v>26</v>
+      </c>
+      <c r="E2173" t="str">
+        <f t="shared" si="162"/>
+        <v>31/07/2024</v>
+      </c>
+      <c r="F2173" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2173" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2174">
+        <v>20240803</v>
+      </c>
+      <c r="C2174">
+        <v>16</v>
+      </c>
+      <c r="D2174">
+        <v>21</v>
+      </c>
+      <c r="E2174" t="str">
+        <f t="shared" si="162"/>
+        <v>03/08/2024</v>
+      </c>
+      <c r="F2174" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2174" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2175">
+        <v>20240730</v>
+      </c>
+      <c r="C2175">
+        <v>14</v>
+      </c>
+      <c r="D2175">
+        <v>26</v>
+      </c>
+      <c r="E2175" t="str">
+        <f t="shared" si="162"/>
+        <v>30/07/2024</v>
+      </c>
+      <c r="F2175" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2175" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2176">
+        <v>20240802</v>
+      </c>
+      <c r="C2176">
+        <v>13</v>
+      </c>
+      <c r="D2176">
+        <v>14</v>
+      </c>
+      <c r="E2176" t="str">
+        <f t="shared" si="162"/>
+        <v>02/08/2024</v>
+      </c>
+      <c r="F2176" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2176" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2177">
+        <v>20240801</v>
+      </c>
+      <c r="C2177">
+        <v>12</v>
+      </c>
+      <c r="D2177">
+        <v>14</v>
+      </c>
+      <c r="E2177" t="str">
+        <f t="shared" si="162"/>
+        <v>01/08/2024</v>
+      </c>
+      <c r="F2177" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2177" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2178">
+        <v>20240802</v>
+      </c>
+      <c r="C2178">
+        <v>12</v>
+      </c>
+      <c r="D2178">
+        <v>17</v>
+      </c>
+      <c r="E2178" t="str">
+        <f t="shared" si="162"/>
+        <v>02/08/2024</v>
+      </c>
+      <c r="F2178" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2178" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2179">
+        <v>20240803</v>
+      </c>
+      <c r="C2179">
+        <v>11</v>
+      </c>
+      <c r="D2179">
+        <v>13</v>
+      </c>
+      <c r="E2179" t="str">
+        <f t="shared" si="162"/>
+        <v>03/08/2024</v>
+      </c>
+      <c r="F2179" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2179" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2180">
+        <v>20240801</v>
+      </c>
+      <c r="C2180">
+        <v>10</v>
+      </c>
+      <c r="D2180">
+        <v>12</v>
+      </c>
+      <c r="E2180" t="str">
+        <f t="shared" si="162"/>
+        <v>01/08/2024</v>
+      </c>
+      <c r="F2180" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2180" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2181">
+        <v>20240803</v>
+      </c>
+      <c r="C2181">
+        <v>10</v>
+      </c>
+      <c r="D2181">
+        <v>11</v>
+      </c>
+      <c r="E2181" t="str">
+        <f t="shared" si="162"/>
+        <v>03/08/2024</v>
+      </c>
+      <c r="F2181" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2181" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2182">
+        <v>20240730</v>
+      </c>
+      <c r="C2182">
+        <v>8</v>
+      </c>
+      <c r="D2182">
+        <v>11</v>
+      </c>
+      <c r="E2182" t="str">
+        <f t="shared" si="162"/>
+        <v>30/07/2024</v>
+      </c>
+      <c r="F2182" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2182" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2183">
+        <v>20240731</v>
+      </c>
+      <c r="C2183">
+        <v>7</v>
+      </c>
+      <c r="D2183">
+        <v>8</v>
+      </c>
+      <c r="E2183" t="str">
+        <f t="shared" si="162"/>
+        <v>31/07/2024</v>
+      </c>
+      <c r="F2183" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2183" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2184">
+        <v>20240731</v>
+      </c>
+      <c r="C2184">
+        <v>7</v>
+      </c>
+      <c r="D2184">
+        <v>8</v>
+      </c>
+      <c r="E2184" t="str">
+        <f t="shared" si="162"/>
+        <v>31/07/2024</v>
+      </c>
+      <c r="F2184" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2184" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2185">
+        <v>20240729</v>
+      </c>
+      <c r="C2185">
+        <v>6</v>
+      </c>
+      <c r="D2185">
+        <v>6</v>
+      </c>
+      <c r="E2185" t="str">
+        <f t="shared" si="162"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="F2185" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2185" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2186">
+        <v>20240729</v>
+      </c>
+      <c r="C2186">
+        <v>6</v>
+      </c>
+      <c r="D2186">
+        <v>9</v>
+      </c>
+      <c r="E2186" t="str">
+        <f t="shared" si="162"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="F2186" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2186" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2187">
+        <v>20240804</v>
+      </c>
+      <c r="C2187">
+        <v>6</v>
+      </c>
+      <c r="D2187">
+        <v>9</v>
+      </c>
+      <c r="E2187" t="str">
+        <f t="shared" si="162"/>
+        <v>04/08/2024</v>
+      </c>
+      <c r="F2187" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2187" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2188">
+        <v>20240729</v>
+      </c>
+      <c r="C2188">
+        <v>5</v>
+      </c>
+      <c r="D2188">
+        <v>5</v>
+      </c>
+      <c r="E2188" t="str">
+        <f t="shared" si="162"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="F2188" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2188" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2189">
+        <v>20240730</v>
+      </c>
+      <c r="C2189">
+        <v>4</v>
+      </c>
+      <c r="D2189">
+        <v>5</v>
+      </c>
+      <c r="E2189" t="str">
+        <f t="shared" si="162"/>
+        <v>30/07/2024</v>
+      </c>
+      <c r="F2189" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2189" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2190">
+        <v>20240803</v>
+      </c>
+      <c r="C2190">
+        <v>3</v>
+      </c>
+      <c r="D2190">
+        <v>4</v>
+      </c>
+      <c r="E2190" t="str">
+        <f t="shared" si="162"/>
+        <v>03/08/2024</v>
+      </c>
+      <c r="F2190" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2190" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2191" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2191">
+        <v>20240804</v>
+      </c>
+      <c r="C2191">
+        <v>3</v>
+      </c>
+      <c r="D2191">
+        <v>4</v>
+      </c>
+      <c r="E2191" t="str">
+        <f t="shared" si="162"/>
+        <v>04/08/2024</v>
+      </c>
+      <c r="F2191" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2191" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2192">
+        <v>20240804</v>
+      </c>
+      <c r="C2192">
+        <v>3</v>
+      </c>
+      <c r="D2192">
+        <v>4</v>
+      </c>
+      <c r="E2192" t="str">
+        <f t="shared" si="162"/>
+        <v>04/08/2024</v>
+      </c>
+      <c r="F2192" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2192" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2193">
+        <v>20240730</v>
+      </c>
+      <c r="C2193">
+        <v>2</v>
+      </c>
+      <c r="D2193">
+        <v>2</v>
+      </c>
+      <c r="E2193" t="str">
+        <f t="shared" si="162"/>
+        <v>30/07/2024</v>
+      </c>
+      <c r="F2193" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2193" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2194">
+        <v>20240801</v>
+      </c>
+      <c r="C2194">
+        <v>2</v>
+      </c>
+      <c r="D2194">
+        <v>2</v>
+      </c>
+      <c r="E2194" t="str">
+        <f t="shared" si="162"/>
+        <v>01/08/2024</v>
+      </c>
+      <c r="F2194" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2194" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2195">
+        <v>20240802</v>
+      </c>
+      <c r="C2195">
+        <v>2</v>
+      </c>
+      <c r="D2195">
+        <v>2</v>
+      </c>
+      <c r="E2195" t="str">
+        <f t="shared" si="162"/>
+        <v>02/08/2024</v>
+      </c>
+      <c r="F2195" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2195" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2196">
+        <v>20240802</v>
+      </c>
+      <c r="C2196">
+        <v>2</v>
+      </c>
+      <c r="D2196">
+        <v>4</v>
+      </c>
+      <c r="E2196" t="str">
+        <f t="shared" si="162"/>
+        <v>02/08/2024</v>
+      </c>
+      <c r="F2196" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2196" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2197">
+        <v>20240803</v>
+      </c>
+      <c r="C2197">
+        <v>2</v>
+      </c>
+      <c r="D2197">
+        <v>3</v>
+      </c>
+      <c r="E2197" t="str">
+        <f t="shared" si="162"/>
+        <v>03/08/2024</v>
+      </c>
+      <c r="F2197" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2197" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2198">
+        <v>20240731</v>
+      </c>
+      <c r="C2198">
+        <v>1</v>
+      </c>
+      <c r="D2198">
+        <v>2</v>
+      </c>
+      <c r="E2198" t="str">
+        <f t="shared" si="162"/>
+        <v>31/07/2024</v>
+      </c>
+      <c r="F2198" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2198" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2199">
+        <v>20240802</v>
+      </c>
+      <c r="C2199">
+        <v>1</v>
+      </c>
+      <c r="D2199">
+        <v>1</v>
+      </c>
+      <c r="E2199" t="str">
+        <f t="shared" si="162"/>
+        <v>02/08/2024</v>
+      </c>
+      <c r="F2199" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2199" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2200">
+        <v>20240729</v>
+      </c>
+      <c r="C2200">
+        <v>1</v>
+      </c>
+      <c r="D2200">
+        <v>1</v>
+      </c>
+      <c r="E2200" t="str">
+        <f t="shared" si="162"/>
+        <v>29/07/2024</v>
+      </c>
+      <c r="F2200" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2200" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2201">
+        <v>20240731</v>
+      </c>
+      <c r="C2201">
+        <v>1</v>
+      </c>
+      <c r="D2201">
+        <v>1</v>
+      </c>
+      <c r="E2201" t="str">
+        <f t="shared" si="162"/>
+        <v>31/07/2024</v>
+      </c>
+      <c r="F2201" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2201" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2202">
+        <v>20240803</v>
+      </c>
+      <c r="C2202">
+        <v>1</v>
+      </c>
+      <c r="D2202">
+        <v>1</v>
+      </c>
+      <c r="E2202" t="str">
+        <f t="shared" si="162"/>
+        <v>03/08/2024</v>
+      </c>
+      <c r="F2202" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2202" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2203">
+        <v>20240730</v>
+      </c>
+      <c r="C2203">
+        <v>1</v>
+      </c>
+      <c r="D2203">
+        <v>2</v>
+      </c>
+      <c r="E2203" t="str">
+        <f t="shared" si="162"/>
+        <v>30/07/2024</v>
+      </c>
+      <c r="F2203" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2203" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2204">
+        <v>20240801</v>
+      </c>
+      <c r="C2204">
+        <v>1</v>
+      </c>
+      <c r="D2204">
+        <v>2</v>
+      </c>
+      <c r="E2204" t="str">
+        <f t="shared" si="162"/>
+        <v>01/08/2024</v>
+      </c>
+      <c r="F2204" t="str">
+        <f t="shared" si="163"/>
+        <v>08</v>
+      </c>
+      <c r="G2204" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2205">
+        <v>20240731</v>
+      </c>
+      <c r="C2205">
+        <v>0</v>
+      </c>
+      <c r="D2205">
+        <v>3</v>
+      </c>
+      <c r="E2205" t="str">
+        <f t="shared" si="162"/>
+        <v>31/07/2024</v>
+      </c>
+      <c r="F2205" t="str">
+        <f t="shared" si="163"/>
+        <v>07</v>
+      </c>
+      <c r="G2205" t="str">
+        <f t="shared" si="164"/>
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1336">
     <sortCondition ref="A2:A1336"/>
